--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADDB72C-AAFE-4270-AEA2-AFB998D12A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AB4694-8DA4-4AAD-9439-CCA1A34FA9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4932" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4972" uniqueCount="980">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -2942,6 +2942,27 @@
   </si>
   <si>
     <t>01:28:49.0</t>
+  </si>
+  <si>
+    <t>02:53:53.0</t>
+  </si>
+  <si>
+    <t>00:30:56.7</t>
+  </si>
+  <si>
+    <t>Blueemlisalphuette</t>
+  </si>
+  <si>
+    <t>04:09:59.0</t>
+  </si>
+  <si>
+    <t>Kandersteg</t>
+  </si>
+  <si>
+    <t>08:25:30.0</t>
+  </si>
+  <si>
+    <t>Griesalp</t>
   </si>
 </sst>
 </file>
@@ -3466,11 +3487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:T884"/>
+  <dimension ref="A1:T891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A874" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L885" sqref="L885"/>
+      <pane ySplit="1" topLeftCell="A816" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G823" sqref="G823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22447,13 +22468,13 @@
         <v>58</v>
       </c>
       <c r="C821" s="9" t="s">
-        <v>800</v>
+        <v>24</v>
       </c>
       <c r="F821" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G821" s="1">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="H821" s="7" t="s">
         <v>890</v>
@@ -22473,7 +22494,7 @@
         <v>454</v>
       </c>
       <c r="G822" s="1">
-        <v>45384</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="823" spans="1:16" x14ac:dyDescent="0.2">
@@ -23280,7 +23301,7 @@
         <v>58</v>
       </c>
       <c r="C860" s="9" t="s">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="F860" s="9" t="s">
         <v>23</v>
@@ -23300,7 +23321,7 @@
         <v>58</v>
       </c>
       <c r="C861" s="9" t="s">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="F861" s="9" t="s">
         <v>342</v>
@@ -23794,6 +23815,161 @@
       </c>
       <c r="L884" s="7" t="s">
         <v>965</v>
+      </c>
+    </row>
+    <row r="885" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A885" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B885" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C885" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F885" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G885" s="1">
+        <v>45507</v>
+      </c>
+      <c r="H885" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="P885" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="886" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A886" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B886" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C886" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F886" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G886" s="1">
+        <v>45508</v>
+      </c>
+      <c r="P886" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q886" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="887" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A887" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B887" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C887" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F887" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G887" s="1">
+        <v>45509</v>
+      </c>
+      <c r="H887" s="7" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="888" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A888" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B888" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C888" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F888" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G888" s="1">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="889" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A889" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B889" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C889" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="F889" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G889" s="1">
+        <v>45510</v>
+      </c>
+      <c r="P889" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q889" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="890" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A890" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B890" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C890" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="F890" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="G890" s="1">
+        <v>45515</v>
+      </c>
+      <c r="H890" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="P890" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="891" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A891" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B891" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C891" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="D891" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="F891" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="G891" s="1">
+        <v>45515</v>
+      </c>
+      <c r="H891" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="P891" s="7" t="s">
+        <v>830</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AB4694-8DA4-4AAD-9439-CCA1A34FA9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D10BA6-2A8F-4032-B25F-DF76FAC95B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4972" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="985">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -2963,6 +2963,21 @@
   </si>
   <si>
     <t>Griesalp</t>
+  </si>
+  <si>
+    <t>01:49:33.0</t>
+  </si>
+  <si>
+    <t>Obwalden</t>
+  </si>
+  <si>
+    <t>Glaubenbielenpass</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>00:53:56.0</t>
   </si>
 </sst>
 </file>
@@ -3487,11 +3502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:T891"/>
+  <dimension ref="A1:T894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A816" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G823" sqref="G823"/>
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I311" sqref="I311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23972,6 +23987,69 @@
         <v>830</v>
       </c>
     </row>
+    <row r="892" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A892" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B892" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C892" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F892" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G892" s="1">
+        <v>45517</v>
+      </c>
+      <c r="H892" s="7" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="893" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A893" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B893" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="C893" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="F893" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="G893" s="1">
+        <v>45518</v>
+      </c>
+      <c r="P893" s="7" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="894" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A894" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B894" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C894" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="D894" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F894" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G894" s="1">
+        <v>45524</v>
+      </c>
+      <c r="H894" s="7" t="s">
+        <v>984</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T884">
     <sortCondition ref="G2:G884"/>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F3F58E-2FA9-4019-B72F-55C8796985ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4B5DD7-45A5-4A8A-A177-568BC2A51E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="all" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$U$913</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$U$914</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5058" uniqueCount="1001">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3016,7 +3016,16 @@
     <t>00:46.15.0</t>
   </si>
   <si>
-    <t>Niesen Plattform Treppenlauf</t>
+    <t>Geissholz Start Signal</t>
+  </si>
+  <si>
+    <t>01:27:25.0</t>
+  </si>
+  <si>
+    <t>Wechselzeit informell abgezogen</t>
+  </si>
+  <si>
+    <t>Niesen Plattform (Lauf)</t>
   </si>
 </sst>
 </file>
@@ -3544,33 +3553,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U913"/>
+  <dimension ref="A1:U914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I907" sqref="I907:I908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.5703125" style="7" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="9.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15" style="7" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="139.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="138.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="204" style="9"/>
   </cols>
   <sheetData>
@@ -5042,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="G58" s="1">
         <v>40698</v>
@@ -5333,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="G68" s="1">
         <v>41062</v>
@@ -5600,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="G79" s="1">
         <v>41797</v>
@@ -5694,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="1">
         <v>42161</v>
@@ -5916,7 +5928,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="G93" s="1">
         <v>42525</v>
@@ -6677,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="G124" s="1">
         <v>43253</v>
@@ -7843,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="G169" s="1">
         <v>43631</v>
@@ -24229,7 +24241,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="897" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A897" s="7" t="s">
         <v>44</v>
       </c>
@@ -24252,7 +24264,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="898" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A898" s="7" t="s">
         <v>44</v>
       </c>
@@ -24275,7 +24287,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="899" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A899" s="7" t="s">
         <v>44</v>
       </c>
@@ -24301,7 +24313,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="900" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A900" s="7" t="s">
         <v>56</v>
       </c>
@@ -24321,7 +24333,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="901" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A901" s="7" t="s">
         <v>44</v>
       </c>
@@ -24341,7 +24353,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="902" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A902" s="7" t="s">
         <v>52</v>
       </c>
@@ -24376,7 +24388,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="903" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A903" s="7" t="s">
         <v>52</v>
       </c>
@@ -24405,15 +24417,15 @@
         <v>961</v>
       </c>
     </row>
-    <row r="904" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A904" s="7" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="B904" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C904" s="9" t="s">
-        <v>796</v>
+        <v>997</v>
       </c>
       <c r="F904" s="9" t="s">
         <v>239</v>
@@ -24421,69 +24433,63 @@
       <c r="G904" s="1">
         <v>45526</v>
       </c>
-      <c r="H904" s="7" t="s">
+      <c r="H904" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="U904" s="9" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="905" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A905" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B905" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C905" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="F905" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G905" s="1">
+        <v>45526</v>
+      </c>
+      <c r="H905" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="I904" s="7">
+      <c r="I905" s="7">
         <v>1203</v>
       </c>
-      <c r="J904" s="7">
+      <c r="J905" s="7">
         <v>1198</v>
       </c>
-      <c r="M904" s="7" t="s">
+      <c r="M905" s="7" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="905" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A905" s="7" t="s">
+    <row r="906" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A906" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B905" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C905" s="9" t="s">
+      <c r="B906" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C906" s="9" t="s">
         <v>984</v>
       </c>
-      <c r="D905" s="9" t="s">
+      <c r="D906" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="F905" s="9" t="s">
+      <c r="F906" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="G905" s="1">
+      <c r="G906" s="1">
         <v>45528</v>
       </c>
     </row>
-    <row r="906" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A906" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B906" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C906" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F906" s="9" t="s">
-        <v>985</v>
-      </c>
-      <c r="G906" s="1">
-        <v>45530</v>
-      </c>
-      <c r="H906" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="I906" s="7">
-        <v>961</v>
-      </c>
-      <c r="K906" s="7">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="M906" s="7" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="907" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A907" s="7" t="s">
         <v>52</v>
       </c>
@@ -24494,26 +24500,49 @@
         <v>185</v>
       </c>
       <c r="F907" s="9" t="s">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="G907" s="1">
         <v>45530</v>
       </c>
       <c r="H907" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="I907" s="7">
-        <v>1648</v>
+        <v>986</v>
       </c>
       <c r="K907" s="7">
-        <v>7.31</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="M907" s="7" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="913" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F913" s="13"/>
+    <row r="908" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A908" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B908" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C908" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F908" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G908" s="1">
+        <v>45530</v>
+      </c>
+      <c r="H908" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="K908" s="7">
+        <v>7.31</v>
+      </c>
+      <c r="M908" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="914" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F914" s="13"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U892">

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4B5DD7-45A5-4A8A-A177-568BC2A51E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03D2AC7-FCEF-4E11-AEFD-5148C8700F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -3557,7 +3557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I907" sqref="I907:I908"/>
+      <selection pane="bottomLeft" activeCell="I904" sqref="I904"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24436,6 +24436,12 @@
       <c r="H904" s="4" t="s">
         <v>998</v>
       </c>
+      <c r="J904" s="7">
+        <v>1198</v>
+      </c>
+      <c r="M904" s="7" t="s">
+        <v>961</v>
+      </c>
       <c r="U904" s="9" t="s">
         <v>999</v>
       </c>
@@ -24458,15 +24464,6 @@
       </c>
       <c r="H905" s="7" t="s">
         <v>982</v>
-      </c>
-      <c r="I905" s="7">
-        <v>1203</v>
-      </c>
-      <c r="J905" s="7">
-        <v>1198</v>
-      </c>
-      <c r="M905" s="7" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="906" spans="1:21" x14ac:dyDescent="0.2">

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03D2AC7-FCEF-4E11-AEFD-5148C8700F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB99E21B-2857-49FB-83AF-3E4A764FFA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5058" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5074" uniqueCount="1004">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3026,6 +3026,15 @@
   </si>
   <si>
     <t>Niesen Plattform (Lauf)</t>
+  </si>
+  <si>
+    <t>00:58:09.6</t>
+  </si>
+  <si>
+    <t>00:27:26.6</t>
+  </si>
+  <si>
+    <t>00:25:29.0</t>
   </si>
 </sst>
 </file>
@@ -3556,8 +3565,8 @@
   <dimension ref="A1:U914"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I904" sqref="I904"/>
+      <pane ySplit="1" topLeftCell="A895" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K912" sqref="K912"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24538,6 +24547,72 @@
         <v>961</v>
       </c>
     </row>
+    <row r="909" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A909" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B909" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C909" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F909" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G909" s="1">
+        <v>45533</v>
+      </c>
+      <c r="H909" s="7" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="910" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A910" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B910" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C910" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="F910" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="G910" s="1">
+        <v>45534</v>
+      </c>
+      <c r="H910" s="7" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="911" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A911" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B911" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C911" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F911" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="G911" s="1">
+        <v>45534</v>
+      </c>
+      <c r="H911" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K911" s="7">
+        <v>3.01</v>
+      </c>
+      <c r="M911" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
     <row r="914" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F914" s="13"/>
     </row>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E944E9B2-B849-4525-9185-EEBD6F460921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A504F12-FFC6-4965-AE33-451E0A58D80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5102" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5111" uniqueCount="1009">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3577,11 +3577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U916"/>
+  <dimension ref="A1:U918"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A892" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H917" sqref="H917"/>
+      <selection pane="bottomLeft" activeCell="G919" sqref="G919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24737,6 +24737,43 @@
         <v>1008</v>
       </c>
     </row>
+    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A917" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B917" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C917" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D917" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="F917" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G917" s="1">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A918" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B918" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C918" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="F918" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G918" s="1">
+        <v>45541</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U892">
     <sortCondition ref="G2:G892"/>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A504F12-FFC6-4965-AE33-451E0A58D80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB490A4-9B00-47E3-BAE3-FF47E8DAC200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="2250" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5111" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5138" uniqueCount="1013">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3050,6 +3050,18 @@
   </si>
   <si>
     <t>02:06:16.8</t>
+  </si>
+  <si>
+    <t>00:54:35.9</t>
+  </si>
+  <si>
+    <t>01:22:47.4</t>
+  </si>
+  <si>
+    <t>01:37:16.0</t>
+  </si>
+  <si>
+    <t>01:42:11.8</t>
   </si>
 </sst>
 </file>
@@ -3577,11 +3589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U918"/>
+  <dimension ref="A1:U923"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A892" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G919" sqref="G919"/>
+      <pane ySplit="1" topLeftCell="A907" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M923" sqref="M923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24657,7 +24669,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A913" s="7" t="s">
         <v>56</v>
       </c>
@@ -24677,7 +24689,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A914" s="7" t="s">
         <v>56</v>
       </c>
@@ -24697,7 +24709,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A915" s="7" t="s">
         <v>56</v>
       </c>
@@ -24717,7 +24729,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A916" s="7" t="s">
         <v>56</v>
       </c>
@@ -24737,7 +24749,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A917" s="7" t="s">
         <v>52</v>
       </c>
@@ -24756,8 +24768,17 @@
       <c r="G917" s="1">
         <v>45540</v>
       </c>
-    </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I917" s="7">
+        <v>461</v>
+      </c>
+      <c r="J917" s="7">
+        <v>21</v>
+      </c>
+      <c r="M917" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="918" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A918" s="7" t="s">
         <v>56</v>
       </c>
@@ -24772,6 +24793,123 @@
       </c>
       <c r="G918" s="1">
         <v>45541</v>
+      </c>
+    </row>
+    <row r="919" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A919" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C919" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D919" s="2"/>
+      <c r="E919" s="2"/>
+      <c r="F919" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G919" s="1">
+        <v>45542</v>
+      </c>
+      <c r="H919" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="920" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A920" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C920" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D920" s="2"/>
+      <c r="E920" s="2"/>
+      <c r="F920" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G920" s="1">
+        <v>45542</v>
+      </c>
+      <c r="H920" s="7" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="921" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A921" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C921" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D921" s="2"/>
+      <c r="E921" s="2"/>
+      <c r="F921" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G921" s="1">
+        <v>45542</v>
+      </c>
+      <c r="H921" s="7" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="922" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A922" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C922" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D922" s="2"/>
+      <c r="E922" s="2"/>
+      <c r="F922" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G922" s="1">
+        <v>45542</v>
+      </c>
+      <c r="H922" s="7" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="923" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A923" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B923" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C923" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D923" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="F923" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G923" s="1">
+        <v>45545</v>
+      </c>
+      <c r="I923" s="7">
+        <v>461</v>
+      </c>
+      <c r="J923" s="7">
+        <v>21</v>
+      </c>
+      <c r="M923" s="7" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB490A4-9B00-47E3-BAE3-FF47E8DAC200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812A4008-ECDB-42A6-8ADB-DA4037218888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5138" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5144" uniqueCount="1014">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3062,6 +3062,9 @@
   </si>
   <si>
     <t>01:42:11.8</t>
+  </si>
+  <si>
+    <t>00:53:02.1</t>
   </si>
 </sst>
 </file>
@@ -3589,11 +3592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U923"/>
+  <dimension ref="A1:U924"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A907" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M923" sqref="M923"/>
+      <pane ySplit="1" topLeftCell="A896" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K918" sqref="K918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24774,6 +24777,9 @@
       <c r="J917" s="7">
         <v>21</v>
       </c>
+      <c r="K917" s="7">
+        <v>4.88</v>
+      </c>
       <c r="M917" s="7" t="s">
         <v>960</v>
       </c>
@@ -24908,7 +24914,42 @@
       <c r="J923" s="7">
         <v>21</v>
       </c>
+      <c r="K923" s="7">
+        <v>6.03</v>
+      </c>
       <c r="M923" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="924" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A924" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B924" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C924" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="F924" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="G924" s="1">
+        <v>45549</v>
+      </c>
+      <c r="H924" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I924" s="7">
+        <v>552</v>
+      </c>
+      <c r="J924" s="7">
+        <v>152</v>
+      </c>
+      <c r="K924" s="7">
+        <v>7.55</v>
+      </c>
+      <c r="M924" s="7" t="s">
         <v>960</v>
       </c>
     </row>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812A4008-ECDB-42A6-8ADB-DA4037218888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994C8A12-BC7B-4358-9C81-D46269E248AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5144" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5159" uniqueCount="1017">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3065,6 +3065,15 @@
   </si>
   <si>
     <t>00:53:02.1</t>
+  </si>
+  <si>
+    <t>00:28:58.4</t>
+  </si>
+  <si>
+    <t>00:53:46.9</t>
+  </si>
+  <si>
+    <t>00:55:49.6</t>
   </si>
 </sst>
 </file>
@@ -3592,11 +3601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U924"/>
+  <dimension ref="A1:U927"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A896" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K918" sqref="K918"/>
+      <pane ySplit="1" topLeftCell="A907" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I934" sqref="I934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24544,12 +24553,6 @@
       <c r="H907" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="K907" s="7">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="M907" s="7" t="s">
-        <v>960</v>
-      </c>
     </row>
     <row r="908" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A908" s="7" t="s">
@@ -24950,6 +24953,78 @@
         <v>7.55</v>
       </c>
       <c r="M924" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="925" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A925" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B925" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C925" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F925" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G925" s="1">
+        <v>45551</v>
+      </c>
+      <c r="H925" s="7" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="926" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A926" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B926" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C926" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F926" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G926" s="1">
+        <v>45551</v>
+      </c>
+      <c r="H926" s="7" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="927" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A927" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B927" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C927" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="F927" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G927" s="1">
+        <v>45551</v>
+      </c>
+      <c r="H927" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I927" s="7">
+        <v>830</v>
+      </c>
+      <c r="J927" s="7">
+        <v>4</v>
+      </c>
+      <c r="K927" s="7">
+        <v>5.35</v>
+      </c>
+      <c r="M927" s="7" t="s">
         <v>960</v>
       </c>
     </row>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994C8A12-BC7B-4358-9C81-D46269E248AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87838A64-C58C-4701-AA50-D4A86A04BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5159" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="1019">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3074,6 +3074,12 @@
   </si>
   <si>
     <t>00:55:49.6</t>
+  </si>
+  <si>
+    <t>00:32:45.2</t>
+  </si>
+  <si>
+    <t>00:56:40.7</t>
   </si>
 </sst>
 </file>
@@ -3601,11 +3607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U927"/>
+  <dimension ref="A1:U930"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A907" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I934" sqref="I934"/>
+      <pane ySplit="1" topLeftCell="A910" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H931" sqref="H931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25028,6 +25034,78 @@
         <v>960</v>
       </c>
     </row>
+    <row r="928" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A928" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B928" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C928" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F928" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G928" s="1">
+        <v>45553</v>
+      </c>
+      <c r="H928" s="7" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="929" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A929" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B929" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C929" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F929" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="G929" s="1">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="930" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A930" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B930" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C930" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D930" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F930" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G930" s="1">
+        <v>45555</v>
+      </c>
+      <c r="H930" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I930" s="7">
+        <v>528</v>
+      </c>
+      <c r="J930" s="7">
+        <v>77</v>
+      </c>
+      <c r="K930" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M930" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U892">
     <sortCondition ref="G2:G892"/>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87838A64-C58C-4701-AA50-D4A86A04BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AEFA8B-3848-4A6B-B056-1278AC056B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="all" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$U$914</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$U$932</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5223" uniqueCount="1029">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3080,6 +3080,36 @@
   </si>
   <si>
     <t>00:56:40.7</t>
+  </si>
+  <si>
+    <t>Mit kurzem Umweg for Gschwandtenmaad wegen Alpabzug</t>
+  </si>
+  <si>
+    <t>01:18:10.3</t>
+  </si>
+  <si>
+    <t>01:05:50.0</t>
+  </si>
+  <si>
+    <t>Obersteinstrasse</t>
+  </si>
+  <si>
+    <t>00:52:56.0</t>
+  </si>
+  <si>
+    <t>00:56:06.6</t>
+  </si>
+  <si>
+    <t>00:56:29.5</t>
+  </si>
+  <si>
+    <t>Reuti Hotel</t>
+  </si>
+  <si>
+    <t>00:56:54.3</t>
+  </si>
+  <si>
+    <t>00:57:12.4</t>
   </si>
 </sst>
 </file>
@@ -3607,11 +3637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U930"/>
+  <dimension ref="A1:U937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A910" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H931" sqref="H931"/>
+      <pane ySplit="1" topLeftCell="A921" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I947" sqref="I947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14839,6 +14869,9 @@
       <c r="C463" s="9" t="s">
         <v>180</v>
       </c>
+      <c r="D463" s="9" t="s">
+        <v>327</v>
+      </c>
       <c r="F463" s="9" t="s">
         <v>24</v>
       </c>
@@ -23763,6 +23796,9 @@
       <c r="C872" s="9" t="s">
         <v>795</v>
       </c>
+      <c r="D872" s="9" t="s">
+        <v>327</v>
+      </c>
       <c r="F872" s="9" t="s">
         <v>930</v>
       </c>
@@ -24028,6 +24064,9 @@
       </c>
       <c r="C885" s="9" t="s">
         <v>795</v>
+      </c>
+      <c r="D885" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="F885" s="9" t="s">
         <v>16</v>
@@ -25054,7 +25093,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="929" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A929" s="7" t="s">
         <v>56</v>
       </c>
@@ -25071,7 +25110,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="930" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A930" s="7" t="s">
         <v>52</v>
       </c>
@@ -25104,6 +25143,185 @@
       </c>
       <c r="M930" s="7" t="s">
         <v>960</v>
+      </c>
+    </row>
+    <row r="931" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A931" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B931" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C931" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D931" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F931" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="G931" s="1">
+        <v>45556</v>
+      </c>
+      <c r="H931" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="U931" s="9" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="932" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A932" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B932" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C932" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D932" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F932" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G932" s="1">
+        <v>45556</v>
+      </c>
+      <c r="H932" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I932" s="7">
+        <v>856</v>
+      </c>
+      <c r="J932" s="7">
+        <v>12</v>
+      </c>
+      <c r="K932" s="7">
+        <v>9.76</v>
+      </c>
+      <c r="M932" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="U932" s="9" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="933" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A933" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B933" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C933" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D933" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F933" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G933" s="1">
+        <v>43351</v>
+      </c>
+      <c r="H933" s="7" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="934" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A934" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B934" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C934" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D934" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F934" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G934" s="1">
+        <v>43603</v>
+      </c>
+      <c r="H934" s="7" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="935" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A935" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B935" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C935" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D935" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F935" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G935" s="1">
+        <v>43344</v>
+      </c>
+      <c r="H935" s="7" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="936" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A936" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B936" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C936" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D936" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F936" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G936" s="1">
+        <v>43589</v>
+      </c>
+      <c r="H936" s="7" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="937" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A937" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B937" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C937" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D937" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F937" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G937" s="1">
+        <v>43543</v>
+      </c>
+      <c r="H937" s="7" t="s">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32A6E37-333B-4E7F-8CD5-CAC01691D0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FF87E9-868F-46A3-AC92-2801E1A63648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5245" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5260" uniqueCount="1037">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3128,6 +3128,12 @@
   </si>
   <si>
     <t>00:56:11.8</t>
+  </si>
+  <si>
+    <t>01:17:28.0</t>
+  </si>
+  <si>
+    <t>01:04:44.0</t>
   </si>
 </sst>
 </file>
@@ -3655,11 +3661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U941"/>
+  <dimension ref="A1:U943"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A938" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K942" sqref="K942"/>
+      <pane ySplit="1" topLeftCell="A910" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A943" sqref="A943"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25413,6 +25419,9 @@
       <c r="K940" s="7">
         <v>4.32</v>
       </c>
+      <c r="M940" s="7" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="941" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A941" s="7" t="s">
@@ -25444,6 +25453,67 @@
       </c>
       <c r="K941" s="7">
         <v>7.84</v>
+      </c>
+      <c r="M941" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="942" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A942" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B942" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C942" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D942" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F942" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="G942" s="1">
+        <v>45581</v>
+      </c>
+      <c r="H942" s="7" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="943" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A943" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B943" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C943" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D943" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F943" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G943" s="1">
+        <v>45581</v>
+      </c>
+      <c r="H943" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I943" s="7">
+        <v>850</v>
+      </c>
+      <c r="J943" s="7">
+        <v>8</v>
+      </c>
+      <c r="K943" s="7">
+        <v>9.82</v>
+      </c>
+      <c r="M943" s="7" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FF87E9-868F-46A3-AC92-2801E1A63648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1A898C-4950-4136-B02E-0F5E4407F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="735" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5260" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5311" uniqueCount="1041">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3134,6 +3134,18 @@
   </si>
   <si>
     <t>01:04:44.0</t>
+  </si>
+  <si>
+    <t>00:31:02.2</t>
+  </si>
+  <si>
+    <t>00:31:43.0</t>
+  </si>
+  <si>
+    <t>Resti</t>
+  </si>
+  <si>
+    <t>00:28:34.5</t>
   </si>
 </sst>
 </file>
@@ -3661,11 +3673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U943"/>
+  <dimension ref="A1:U952"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A910" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A943" sqref="A943"/>
+      <pane ySplit="1" topLeftCell="A930" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C953" sqref="C953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15899,7 +15911,9 @@
       <c r="C508" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D508" s="2"/>
+      <c r="D508" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E508" s="2"/>
       <c r="F508" s="2" t="s">
         <v>511</v>
@@ -15943,6 +15957,9 @@
       </c>
       <c r="C510" s="9" t="s">
         <v>119</v>
+      </c>
+      <c r="D510" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="F510" s="9" t="s">
         <v>511</v>
@@ -18612,7 +18629,9 @@
       <c r="C622" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D622" s="2"/>
+      <c r="D622" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E622" s="2"/>
       <c r="F622" s="2" t="s">
         <v>511</v>
@@ -19408,7 +19427,9 @@
       <c r="C662" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D662" s="2"/>
+      <c r="D662" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E662" s="2"/>
       <c r="F662" s="2" t="s">
         <v>511</v>
@@ -21133,6 +21154,9 @@
       </c>
       <c r="C751" s="9" t="s">
         <v>119</v>
+      </c>
+      <c r="D751" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="F751" s="9" t="s">
         <v>511</v>
@@ -25514,6 +25538,213 @@
       </c>
       <c r="M943" s="7" t="s">
         <v>960</v>
+      </c>
+    </row>
+    <row r="944" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A944" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B944" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C944" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="F944" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="G944" s="1">
+        <v>45583</v>
+      </c>
+      <c r="H944" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I944" s="7">
+        <v>443</v>
+      </c>
+      <c r="K944" s="7">
+        <v>3.92</v>
+      </c>
+      <c r="M944" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A945" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B945" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C945" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D945" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="F945" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="G945" s="1">
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A946" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B946" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C946" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="F946" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="G946" s="1">
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A947" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B947" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C947" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F947" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G947" s="1">
+        <v>45586</v>
+      </c>
+      <c r="H947" s="7" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A948" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B948" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C948" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D948" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F948" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="G948" s="1">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A949" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B949" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C949" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D949" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="F949" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G949" s="1">
+        <v>45588</v>
+      </c>
+      <c r="I949" s="7">
+        <v>127</v>
+      </c>
+      <c r="J949" s="7">
+        <v>126</v>
+      </c>
+      <c r="K949" s="7">
+        <v>3.68</v>
+      </c>
+      <c r="M949" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A950" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B950" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C950" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D950" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="F950" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="G950" s="1">
+        <v>45589</v>
+      </c>
+      <c r="I950" s="7">
+        <v>142</v>
+      </c>
+      <c r="J950" s="7">
+        <v>124</v>
+      </c>
+      <c r="K950" s="7">
+        <v>4.42</v>
+      </c>
+      <c r="M950" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A951" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B951" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C951" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F951" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="G951" s="1">
+        <v>45590</v>
+      </c>
+      <c r="H951" s="7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A952" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B952" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C952" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="F952" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G952" s="1">
+        <v>45590</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1A898C-4950-4136-B02E-0F5E4407F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D443FC40-BC4C-4AD1-8BC3-7FBAD9E168CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="all" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$U$932</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$U$955</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5311" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5343" uniqueCount="1043">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3146,6 +3146,12 @@
   </si>
   <si>
     <t>00:28:34.5</t>
+  </si>
+  <si>
+    <t>00:28:23.4</t>
+  </si>
+  <si>
+    <t>00:53:15.6</t>
   </si>
 </sst>
 </file>
@@ -3673,11 +3679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U952"/>
+  <dimension ref="A1:U955"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A930" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C953" sqref="C953"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D856" sqref="D856:D896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12577,6 +12583,9 @@
       <c r="C363" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D363" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F363" s="9" t="s">
         <v>326</v>
       </c>
@@ -13135,6 +13144,9 @@
       </c>
       <c r="C384" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F384" s="9" t="s">
         <v>326</v>
@@ -13367,6 +13379,9 @@
       <c r="C393" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D393" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F393" s="9" t="s">
         <v>326</v>
       </c>
@@ -14025,6 +14040,9 @@
       <c r="C422" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D422" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F422" s="9" t="s">
         <v>326</v>
       </c>
@@ -16045,6 +16063,9 @@
       <c r="C514" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D514" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F514" s="9" t="s">
         <v>326</v>
       </c>
@@ -17899,6 +17920,9 @@
       <c r="C588" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D588" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F588" s="9" t="s">
         <v>326</v>
       </c>
@@ -18542,6 +18566,9 @@
       <c r="C618" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D618" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F618" s="9" t="s">
         <v>326</v>
       </c>
@@ -19624,6 +19651,9 @@
       <c r="C673" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D673" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F673" s="9" t="s">
         <v>326</v>
       </c>
@@ -19752,6 +19782,9 @@
       <c r="C680" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D680" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F680" s="9" t="s">
         <v>326</v>
       </c>
@@ -19900,6 +19933,9 @@
       <c r="C688" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D688" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F688" s="9" t="s">
         <v>326</v>
       </c>
@@ -20170,6 +20206,9 @@
       </c>
       <c r="C702" s="9" t="s">
         <v>23</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F702" s="9" t="s">
         <v>326</v>
@@ -20437,6 +20476,9 @@
       </c>
       <c r="C715" s="9" t="s">
         <v>23</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F715" s="9" t="s">
         <v>326</v>
@@ -23531,6 +23573,9 @@
       <c r="C856" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D856" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F856" s="9" t="s">
         <v>326</v>
       </c>
@@ -24373,7 +24418,10 @@
         <v>57</v>
       </c>
       <c r="C896" s="9" t="s">
-        <v>795</v>
+        <v>23</v>
+      </c>
+      <c r="D896" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F896" s="9" t="s">
         <v>326</v>
@@ -25738,13 +25786,91 @@
         <v>57</v>
       </c>
       <c r="C952" s="9" t="s">
-        <v>795</v>
+        <v>23</v>
+      </c>
+      <c r="D952" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F952" s="9" t="s">
         <v>326</v>
       </c>
       <c r="G952" s="1">
         <v>45590</v>
+      </c>
+    </row>
+    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A953" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B953" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C953" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D953" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="F953" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="G953" s="1">
+        <v>45592</v>
+      </c>
+      <c r="I953" s="7">
+        <v>259</v>
+      </c>
+      <c r="J953" s="7">
+        <v>260</v>
+      </c>
+      <c r="K953" s="7">
+        <v>4.09</v>
+      </c>
+      <c r="M953" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A954" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B954" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C954" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F954" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="G954" s="1">
+        <v>45595</v>
+      </c>
+      <c r="H954" s="7" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A955" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B955" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C955" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D955" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F955" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G955" s="1">
+        <v>45595</v>
+      </c>
+      <c r="H955" s="7" t="s">
+        <v>1042</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D443FC40-BC4C-4AD1-8BC3-7FBAD9E168CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4AD269-5A8B-44EF-ADC3-CBA3ADD5912C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$U$955</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$U$964</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5343" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="1050">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3152,6 +3152,27 @@
   </si>
   <si>
     <t>00:53:15.6</t>
+  </si>
+  <si>
+    <t>00:31:58.0</t>
+  </si>
+  <si>
+    <t>00:45:48.6</t>
+  </si>
+  <si>
+    <t>Talboden</t>
+  </si>
+  <si>
+    <t>Bundeshaus</t>
+  </si>
+  <si>
+    <t>Alpbachschlucht</t>
+  </si>
+  <si>
+    <t>01:28:53.8</t>
+  </si>
+  <si>
+    <t>00:30:47.0</t>
   </si>
 </sst>
 </file>
@@ -3679,11 +3700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U955"/>
+  <dimension ref="A1:U964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D856" sqref="D856:D896"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D963" sqref="D963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7148,7 +7169,9 @@
       <c r="C137" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D137" s="2"/>
+      <c r="D137" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
         <v>486</v>
@@ -14173,6 +14196,9 @@
       <c r="C428" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="D428" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="F428" s="9" t="s">
         <v>486</v>
       </c>
@@ -14515,7 +14541,9 @@
       <c r="C444" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D444" s="2"/>
+      <c r="D444" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E444" s="2"/>
       <c r="F444" s="2" t="s">
         <v>486</v>
@@ -14669,7 +14697,9 @@
       <c r="C451" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D451" s="2"/>
+      <c r="D451" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E451" s="2"/>
       <c r="F451" s="2" t="s">
         <v>486</v>
@@ -14976,7 +15006,9 @@
       <c r="C465" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D465" s="2"/>
+      <c r="D465" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E465" s="2"/>
       <c r="F465" s="2" t="s">
         <v>486</v>
@@ -14997,6 +15029,12 @@
       </c>
       <c r="C466" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="F466" s="9" t="s">
         <v>121</v>
@@ -25871,6 +25909,237 @@
       </c>
       <c r="H955" s="7" t="s">
         <v>1042</v>
+      </c>
+    </row>
+    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A956" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B956" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C956" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F956" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G956" s="1">
+        <v>45596</v>
+      </c>
+      <c r="H956" s="7" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A957" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B957" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C957" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F957" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="G957" s="1">
+        <v>45596</v>
+      </c>
+      <c r="H957" s="7" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A958" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B958" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C958" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G958" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I958" s="7">
+        <v>23</v>
+      </c>
+      <c r="J958" s="7">
+        <v>32</v>
+      </c>
+      <c r="K958" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="M958" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A959" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B959" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C959" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D959" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E959" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F959" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G959" s="1">
+        <v>45598</v>
+      </c>
+      <c r="I959" s="7">
+        <v>579</v>
+      </c>
+      <c r="J959" s="7">
+        <v>120</v>
+      </c>
+      <c r="K959" s="7">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="M959" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A960" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B960" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C960" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F960" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="G960" s="1">
+        <v>45599</v>
+      </c>
+      <c r="I960" s="7">
+        <v>396</v>
+      </c>
+      <c r="J960" s="7">
+        <v>56</v>
+      </c>
+      <c r="K960" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="M960" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="961" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A961" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B961" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C961" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D961" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E961" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="F961" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="G961" s="1">
+        <v>45602</v>
+      </c>
+      <c r="I961" s="7">
+        <v>199</v>
+      </c>
+      <c r="J961" s="7">
+        <v>200</v>
+      </c>
+      <c r="K961" s="7">
+        <v>3.32</v>
+      </c>
+      <c r="M961" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="962" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A962" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B962" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C962" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F962" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G962" s="1">
+        <v>45603</v>
+      </c>
+      <c r="H962" s="7" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="963" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A963" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B963" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C963" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D963" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F963" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="G963" s="1">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="964" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A964" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B964" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C964" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D964" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E964" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F964" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G964" s="1">
+        <v>45603</v>
+      </c>
+      <c r="H964" s="7" t="s">
+        <v>1048</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4AD269-5A8B-44EF-ADC3-CBA3ADD5912C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B812B5DF-8A8A-4EB2-A142-EE5BC1C8E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5401" uniqueCount="1051">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3173,6 +3173,9 @@
   </si>
   <si>
     <t>00:30:47.0</t>
+  </si>
+  <si>
+    <t>01:06:23.9</t>
   </si>
 </sst>
 </file>
@@ -3703,8 +3706,8 @@
   <dimension ref="A1:U964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D963" sqref="D963"/>
+      <pane ySplit="1" topLeftCell="A931" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H964" sqref="H964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26110,10 +26113,13 @@
         <v>311</v>
       </c>
       <c r="F963" s="9" t="s">
-        <v>779</v>
+        <v>486</v>
       </c>
       <c r="G963" s="1">
         <v>45603</v>
+      </c>
+      <c r="H963" s="7" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="964" spans="1:13" x14ac:dyDescent="0.2">

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B812B5DF-8A8A-4EB2-A142-EE5BC1C8E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E6493-2172-4111-AA76-ACA6CBEF016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5401" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5462" uniqueCount="1056">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3176,6 +3176,21 @@
   </si>
   <si>
     <t>01:06:23.9</t>
+  </si>
+  <si>
+    <t>00:56:48.5</t>
+  </si>
+  <si>
+    <t>Baerewaegli</t>
+  </si>
+  <si>
+    <t>02:09:25.0</t>
+  </si>
+  <si>
+    <t>Huesen</t>
+  </si>
+  <si>
+    <t>Bsangtenfluh</t>
   </si>
 </sst>
 </file>
@@ -3703,11 +3718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U964"/>
+  <dimension ref="A1:U974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A931" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H964" sqref="H964"/>
+      <pane ySplit="1" topLeftCell="A960" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C965" sqref="C965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26044,7 +26059,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="961" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A961" s="7" t="s">
         <v>52</v>
       </c>
@@ -26079,7 +26094,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="962" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A962" s="7" t="s">
         <v>56</v>
       </c>
@@ -26099,7 +26114,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="963" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A963" s="7" t="s">
         <v>56</v>
       </c>
@@ -26122,7 +26137,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="964" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A964" s="7" t="s">
         <v>56</v>
       </c>
@@ -26146,6 +26161,311 @@
       </c>
       <c r="H964" s="7" t="s">
         <v>1048</v>
+      </c>
+    </row>
+    <row r="965" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A965" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B965" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C965" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="F965" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="G965" s="1">
+        <v>45604</v>
+      </c>
+      <c r="H965" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I965" s="7">
+        <v>549</v>
+      </c>
+      <c r="J965" s="7">
+        <v>149</v>
+      </c>
+      <c r="K965" s="7">
+        <v>7.59</v>
+      </c>
+      <c r="M965" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="966" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A966" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B966" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C966" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="F966" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G966" s="1">
+        <v>45605</v>
+      </c>
+      <c r="Q966" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="967" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A967" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B967" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C967" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D967" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E967" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="F967" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="G967" s="1">
+        <v>45610</v>
+      </c>
+      <c r="I967" s="7">
+        <v>213</v>
+      </c>
+      <c r="J967" s="7">
+        <v>211</v>
+      </c>
+      <c r="K967" s="7">
+        <v>3.61</v>
+      </c>
+      <c r="M967" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="968" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A968" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B968" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C968" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D968" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F968" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="G968" s="1">
+        <v>45612</v>
+      </c>
+      <c r="I968" s="7">
+        <v>582</v>
+      </c>
+      <c r="J968" s="7">
+        <v>173</v>
+      </c>
+      <c r="K968" s="7">
+        <v>8</v>
+      </c>
+      <c r="M968" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="969" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A969" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B969" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C969" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D969" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="E969" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="F969" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="G969" s="1">
+        <v>45617</v>
+      </c>
+      <c r="I969" s="7">
+        <v>266</v>
+      </c>
+      <c r="J969" s="7">
+        <v>270</v>
+      </c>
+      <c r="K969" s="7">
+        <v>6.64</v>
+      </c>
+      <c r="M969" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="970" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A970" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B970" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C970" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F970" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G970" s="1">
+        <v>45619</v>
+      </c>
+      <c r="H970" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L970" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="M970" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="971" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A971" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B971" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C971" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="F971" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G971" s="1">
+        <v>45620</v>
+      </c>
+      <c r="I971" s="7">
+        <v>472</v>
+      </c>
+      <c r="J971" s="7">
+        <v>8</v>
+      </c>
+      <c r="K971" s="7">
+        <v>5.09</v>
+      </c>
+      <c r="M971" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="972" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A972" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B972" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C972" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D972" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F972" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="G972" s="1">
+        <v>45621</v>
+      </c>
+      <c r="I972" s="7">
+        <v>44</v>
+      </c>
+      <c r="J972" s="7">
+        <v>43</v>
+      </c>
+      <c r="K972" s="7">
+        <v>6.05</v>
+      </c>
+      <c r="M972" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="973" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A973" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B973" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C973" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D973" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E973" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="F973" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="G973" s="1">
+        <v>45622</v>
+      </c>
+      <c r="I973" s="7">
+        <v>238</v>
+      </c>
+      <c r="J973" s="7">
+        <v>247</v>
+      </c>
+      <c r="K973" s="7">
+        <v>5.44</v>
+      </c>
+      <c r="M973" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="974" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A974" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B974" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C974" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="F974" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="G974" s="1">
+        <v>45624</v>
+      </c>
+      <c r="I974" s="7">
+        <v>17</v>
+      </c>
+      <c r="J974" s="7">
+        <v>48</v>
+      </c>
+      <c r="K974" s="7">
+        <v>9.15</v>
+      </c>
+      <c r="M974" s="7" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E6493-2172-4111-AA76-ACA6CBEF016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46B83E6-86A0-4288-8263-144A8877F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="all" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$U$964</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$U$974</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5462" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5464" uniqueCount="1056">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3718,11 +3718,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A960" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C965" sqref="C965"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K152" sqref="K152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3816,7 +3817,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3844,7 +3845,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3952,7 +3953,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -3980,7 +3981,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4072,7 +4073,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4568,7 +4569,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4619,7 +4620,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -4647,7 +4648,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4755,7 +4756,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4783,7 +4784,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4813,7 +4814,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -4913,7 +4914,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -4974,7 +4975,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -5147,7 +5148,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -5175,7 +5176,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5208,7 +5209,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -5236,7 +5237,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5269,7 +5270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -5297,7 +5298,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5423,7 +5424,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>52</v>
       </c>
@@ -5471,7 +5472,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>52</v>
       </c>
@@ -5499,7 +5500,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>52</v>
       </c>
@@ -5527,7 +5528,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>52</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>52</v>
       </c>
@@ -5658,7 +5659,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>52</v>
       </c>
@@ -5686,7 +5687,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>52</v>
       </c>
@@ -5706,7 +5707,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
@@ -5766,7 +5767,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -5794,7 +5795,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -5836,7 +5837,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>52</v>
       </c>
@@ -5888,7 +5889,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>44</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -5936,7 +5937,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -5956,7 +5957,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -5976,7 +5977,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -5996,7 +5997,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>52</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -6082,7 +6083,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>52</v>
       </c>
@@ -6110,7 +6111,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>52</v>
       </c>
@@ -6161,7 +6162,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>52</v>
       </c>
@@ -6181,7 +6182,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
@@ -6227,7 +6228,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>52</v>
       </c>
@@ -6247,7 +6248,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>52</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>52</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>52</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>52</v>
       </c>
@@ -6355,7 +6356,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>52</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>52</v>
       </c>
@@ -6434,7 +6435,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>52</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>52</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -6515,7 +6516,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>149</v>
@@ -6541,7 +6542,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>52</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -6597,7 +6598,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>52</v>
       </c>
@@ -6617,7 +6618,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>52</v>
       </c>
@@ -6637,7 +6638,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>52</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -6705,7 +6706,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -6733,7 +6734,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -6763,7 +6764,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -6787,7 +6788,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -6817,7 +6818,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>149</v>
@@ -6843,7 +6844,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>52</v>
       </c>
@@ -6871,7 +6872,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -6901,7 +6902,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -6931,7 +6932,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -6957,7 +6958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>52</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -7033,7 +7034,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>52</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
@@ -7107,7 +7108,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>56</v>
       </c>
@@ -7133,7 +7134,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>56</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
@@ -7177,7 +7178,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -7201,7 +7202,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
@@ -7227,7 +7228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -7251,7 +7252,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>52</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>52</v>
       </c>
@@ -7297,7 +7298,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
@@ -7327,7 +7328,7 @@
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
@@ -7349,7 +7350,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>56</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>56</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>56</v>
       </c>
@@ -7421,7 +7422,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>56</v>
       </c>
@@ -7445,7 +7446,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>52</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>52</v>
       </c>
@@ -7491,7 +7492,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>52</v>
       </c>
@@ -7690,7 +7691,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>52</v>
       </c>
@@ -7741,7 +7742,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>52</v>
       </c>
@@ -7761,7 +7762,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>52</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>52</v>
       </c>
@@ -7897,7 +7898,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>52</v>
       </c>
@@ -7917,7 +7918,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>52</v>
       </c>
@@ -7940,7 +7941,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>52</v>
       </c>
@@ -8062,7 +8063,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>56</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>56</v>
       </c>
@@ -8108,7 +8109,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>149</v>
@@ -8126,7 +8127,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>52</v>
       </c>
@@ -8146,7 +8147,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>52</v>
       </c>
@@ -8166,7 +8167,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>52</v>
       </c>
@@ -8189,7 +8190,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>52</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>56</v>
       </c>
@@ -8231,7 +8232,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>225</v>
       </c>
@@ -8253,7 +8254,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>56</v>
       </c>
@@ -8283,7 +8284,7 @@
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>56</v>
       </c>
@@ -8309,7 +8310,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>52</v>
       </c>
@@ -8332,7 +8333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>56</v>
       </c>
@@ -8360,7 +8361,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>56</v>
       </c>
@@ -8388,7 +8389,7 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>56</v>
       </c>
@@ -8416,7 +8417,7 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>56</v>
       </c>
@@ -8446,7 +8447,7 @@
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>56</v>
       </c>
@@ -8472,7 +8473,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>56</v>
       </c>
@@ -8496,7 +8497,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>56</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>52</v>
       </c>
@@ -8544,7 +8545,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -8566,7 +8567,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>225</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>56</v>
       </c>
@@ -8610,7 +8611,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>52</v>
       </c>
@@ -8632,7 +8633,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
@@ -8657,7 +8658,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>52</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>52</v>
       </c>
@@ -8836,7 +8837,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>52</v>
       </c>
@@ -8856,7 +8857,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>52</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>56</v>
       </c>
@@ -8910,7 +8911,7 @@
       <c r="P204" s="6"/>
       <c r="U204" s="11"/>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>56</v>
       </c>
@@ -8934,7 +8935,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>56</v>
       </c>
@@ -8962,7 +8963,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>56</v>
       </c>
@@ -8990,7 +8991,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>56</v>
       </c>
@@ -9012,7 +9013,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>56</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>56</v>
       </c>
@@ -9056,7 +9057,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>56</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>52</v>
       </c>
@@ -9098,7 +9099,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>56</v>
       </c>
@@ -9123,7 +9124,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -9148,7 +9149,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>56</v>
       </c>
@@ -9168,7 +9169,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>56</v>
       </c>
@@ -9188,7 +9189,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -9213,7 +9214,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>56</v>
       </c>
@@ -9235,7 +9236,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>56</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>56</v>
       </c>
@@ -9279,7 +9280,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
@@ -9302,7 +9303,7 @@
       </c>
       <c r="U221" s="11"/>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9334,7 +9335,7 @@
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>56</v>
       </c>
@@ -9356,7 +9357,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>56</v>
       </c>
@@ -9378,7 +9379,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>56</v>
       </c>
@@ -9402,7 +9403,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>56</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>56</v>
       </c>
@@ -9448,7 +9449,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>56</v>
       </c>
@@ -9470,7 +9471,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>56</v>
       </c>
@@ -9492,7 +9493,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>56</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>56</v>
       </c>
@@ -9536,7 +9537,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>56</v>
       </c>
@@ -9558,7 +9559,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>56</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>56</v>
       </c>
@@ -9602,7 +9603,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>225</v>
       </c>
@@ -9624,7 +9625,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>56</v>
       </c>
@@ -9650,7 +9651,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>56</v>
       </c>
@@ -9672,7 +9673,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>56</v>
       </c>
@@ -9694,7 +9695,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>56</v>
       </c>
@@ -9716,7 +9717,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>56</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>56</v>
       </c>
@@ -9766,7 +9767,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
@@ -9786,7 +9787,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
@@ -9826,7 +9827,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>56</v>
       </c>
@@ -9850,7 +9851,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>56</v>
       </c>
@@ -9876,7 +9877,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>56</v>
       </c>
@@ -9902,7 +9903,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>52</v>
       </c>
@@ -9924,7 +9925,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>56</v>
       </c>
@@ -9946,7 +9947,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>225</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>56</v>
       </c>
@@ -9993,7 +9994,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>56</v>
       </c>
@@ -10015,7 +10016,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>56</v>
       </c>
@@ -10037,7 +10038,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>56</v>
       </c>
@@ -10059,7 +10060,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>56</v>
       </c>
@@ -10085,7 +10086,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>52</v>
       </c>
@@ -10105,7 +10106,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>56</v>
       </c>
@@ -10127,7 +10128,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>56</v>
       </c>
@@ -10151,7 +10152,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>56</v>
       </c>
@@ -10171,7 +10172,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>56</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>56</v>
       </c>
@@ -10211,7 +10212,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>56</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>56</v>
       </c>
@@ -10257,7 +10258,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>56</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>52</v>
       </c>
@@ -10301,7 +10302,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>225</v>
       </c>
@@ -10323,7 +10324,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>56</v>
       </c>
@@ -10343,7 +10344,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -10365,7 +10366,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>56</v>
       </c>
@@ -10389,7 +10390,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>56</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>56</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>56</v>
       </c>
@@ -10461,7 +10462,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>56</v>
       </c>
@@ -10485,7 +10486,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>56</v>
       </c>
@@ -10504,7 +10505,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>56</v>
       </c>
@@ -10527,7 +10528,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>56</v>
       </c>
@@ -10551,7 +10552,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>56</v>
       </c>
@@ -10577,7 +10578,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>56</v>
       </c>
@@ -10596,7 +10597,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>52</v>
       </c>
@@ -10620,7 +10621,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>56</v>
       </c>
@@ -10643,7 +10644,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>56</v>
       </c>
@@ -10666,7 +10667,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>56</v>
       </c>
@@ -10688,7 +10689,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>56</v>
       </c>
@@ -10710,7 +10711,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>56</v>
       </c>
@@ -10729,7 +10730,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>56</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>56</v>
       </c>
@@ -10778,7 +10779,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>56</v>
       </c>
@@ -10804,7 +10805,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>56</v>
       </c>
@@ -10827,7 +10828,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>52</v>
       </c>
@@ -10850,7 +10851,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>52</v>
       </c>
@@ -10873,7 +10874,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>56</v>
       </c>
@@ -10897,7 +10898,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>56</v>
       </c>
@@ -10919,7 +10920,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>56</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>52</v>
       </c>
@@ -10969,7 +10970,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>52</v>
       </c>
@@ -10992,7 +10993,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>52</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>52</v>
       </c>
@@ -11038,7 +11039,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>56</v>
       </c>
@@ -11060,7 +11061,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>56</v>
       </c>
@@ -11084,7 +11085,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>56</v>
       </c>
@@ -11104,7 +11105,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>56</v>
       </c>
@@ -11124,7 +11125,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>56</v>
       </c>
@@ -11146,7 +11147,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>56</v>
       </c>
@@ -11170,7 +11171,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>52</v>
       </c>
@@ -11190,7 +11191,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>56</v>
       </c>
@@ -11224,7 +11225,7 @@
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>56</v>
       </c>
@@ -11246,7 +11247,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>56</v>
       </c>
@@ -11270,7 +11271,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>56</v>
       </c>
@@ -11292,7 +11293,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>56</v>
       </c>
@@ -11316,7 +11317,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>56</v>
       </c>
@@ -11336,7 +11337,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>225</v>
       </c>
@@ -11445,7 +11446,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
         <v>369</v>
       </c>
@@ -11505,7 +11506,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
         <v>369</v>
       </c>
@@ -11531,7 +11532,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
         <v>369</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>369</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>369</v>
       </c>
@@ -11646,7 +11647,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>369</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>369</v>
       </c>
@@ -11689,7 +11690,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>369</v>
       </c>
@@ -11709,7 +11710,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>369</v>
       </c>
@@ -11729,7 +11730,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>369</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>52</v>
       </c>
@@ -11775,7 +11776,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>369</v>
       </c>
@@ -11798,7 +11799,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
         <v>369</v>
       </c>
@@ -11821,7 +11822,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>369</v>
       </c>
@@ -11838,7 +11839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>369</v>
       </c>
@@ -11855,7 +11856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>369</v>
       </c>
@@ -11875,7 +11876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>369</v>
       </c>
@@ -11895,7 +11896,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>369</v>
       </c>
@@ -11944,7 +11945,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>369</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
         <v>369</v>
       </c>
@@ -12045,7 +12046,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
         <v>369</v>
       </c>
@@ -12071,7 +12072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
         <v>369</v>
       </c>
@@ -12088,7 +12089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
         <v>369</v>
       </c>
@@ -12111,7 +12112,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
         <v>369</v>
       </c>
@@ -12156,7 +12157,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
         <v>369</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
         <v>369</v>
       </c>
@@ -12225,7 +12226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
         <v>369</v>
       </c>
@@ -12309,7 +12310,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
         <v>369</v>
       </c>
@@ -12367,7 +12368,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
         <v>369</v>
       </c>
@@ -12387,7 +12388,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
         <v>369</v>
       </c>
@@ -12416,7 +12417,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
         <v>369</v>
       </c>
@@ -12562,7 +12563,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
         <v>369</v>
       </c>
@@ -12614,7 +12615,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
         <v>56</v>
       </c>
@@ -12634,7 +12635,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
         <v>369</v>
       </c>
@@ -12772,7 +12773,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
         <v>369</v>
       </c>
@@ -12824,7 +12825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>369</v>
       </c>
@@ -12867,7 +12868,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>369</v>
       </c>
@@ -13176,7 +13177,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>56</v>
       </c>
@@ -13196,7 +13197,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>56</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>56</v>
       </c>
@@ -13303,7 +13304,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>56</v>
       </c>
@@ -13326,7 +13327,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>56</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>56</v>
       </c>
@@ -13410,7 +13411,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="7" t="s">
         <v>56</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>56</v>
       </c>
@@ -13482,7 +13483,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>56</v>
       </c>
@@ -13505,7 +13506,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>56</v>
       </c>
@@ -13525,7 +13526,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>56</v>
       </c>
@@ -13606,7 +13607,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>56</v>
       </c>
@@ -13652,7 +13653,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
         <v>56</v>
       </c>
@@ -13675,7 +13676,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
         <v>56</v>
       </c>
@@ -13695,7 +13696,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
         <v>56</v>
       </c>
@@ -13712,7 +13713,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
         <v>56</v>
       </c>
@@ -13732,7 +13733,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
         <v>56</v>
       </c>
@@ -13752,7 +13753,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
         <v>56</v>
       </c>
@@ -13772,7 +13773,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
         <v>52</v>
       </c>
@@ -13792,7 +13793,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="7" t="s">
         <v>56</v>
       </c>
@@ -13809,7 +13810,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
         <v>56</v>
       </c>
@@ -13858,7 +13859,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
         <v>56</v>
       </c>
@@ -13878,7 +13879,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
         <v>56</v>
       </c>
@@ -13991,7 +13992,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>56</v>
       </c>
@@ -14011,7 +14012,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>56</v>
       </c>
@@ -14031,7 +14032,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>56</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>56</v>
       </c>
@@ -14071,7 +14072,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>56</v>
       </c>
@@ -14094,7 +14095,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>56</v>
       </c>
@@ -14125,7 +14126,7 @@
       <c r="L423" s="12"/>
       <c r="M423" s="12"/>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>56</v>
       </c>
@@ -14142,7 +14143,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>56</v>
       </c>
@@ -14162,7 +14163,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>56</v>
       </c>
@@ -14182,7 +14183,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>56</v>
       </c>
@@ -14204,7 +14205,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>56</v>
       </c>
@@ -14227,7 +14228,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>56</v>
       </c>
@@ -14253,7 +14254,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="7" t="s">
         <v>56</v>
       </c>
@@ -14270,7 +14271,7 @@
         <v>44360</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>56</v>
       </c>
@@ -14293,7 +14294,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>56</v>
       </c>
@@ -14315,7 +14316,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>56</v>
       </c>
@@ -14337,7 +14338,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
         <v>56</v>
       </c>
@@ -14359,7 +14360,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>56</v>
       </c>
@@ -14383,7 +14384,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
         <v>56</v>
       </c>
@@ -14409,7 +14410,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>56</v>
       </c>
@@ -14429,7 +14430,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>56</v>
       </c>
@@ -14446,7 +14447,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>56</v>
       </c>
@@ -14468,7 +14469,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>56</v>
       </c>
@@ -14492,7 +14493,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="7" t="s">
         <v>56</v>
       </c>
@@ -14512,7 +14513,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="7" t="s">
         <v>56</v>
       </c>
@@ -14529,7 +14530,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
         <v>56</v>
       </c>
@@ -14549,7 +14550,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>56</v>
       </c>
@@ -14573,7 +14574,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>56</v>
       </c>
@@ -14593,7 +14594,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>56</v>
       </c>
@@ -14615,7 +14616,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>56</v>
       </c>
@@ -14637,7 +14638,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="7" t="s">
         <v>56</v>
       </c>
@@ -14657,7 +14658,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
         <v>56</v>
       </c>
@@ -14683,7 +14684,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>56</v>
       </c>
@@ -14705,7 +14706,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>56</v>
       </c>
@@ -14729,7 +14730,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="7" t="s">
         <v>56</v>
       </c>
@@ -14753,7 +14754,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
         <v>56</v>
       </c>
@@ -14779,7 +14780,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
         <v>56</v>
       </c>
@@ -14799,7 +14800,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>56</v>
       </c>
@@ -14819,7 +14820,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
         <v>56</v>
       </c>
@@ -14842,7 +14843,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>56</v>
       </c>
@@ -14864,7 +14865,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>56</v>
       </c>
@@ -14886,7 +14887,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>56</v>
       </c>
@@ -14909,7 +14910,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="7" t="s">
         <v>52</v>
       </c>
@@ -14929,7 +14930,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="7" t="s">
         <v>56</v>
       </c>
@@ -14946,7 +14947,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="7" t="s">
         <v>52</v>
       </c>
@@ -14963,7 +14964,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
         <v>56</v>
       </c>
@@ -14992,7 +14993,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>56</v>
       </c>
@@ -15014,7 +15015,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>56</v>
       </c>
@@ -15038,7 +15039,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>56</v>
       </c>
@@ -15064,7 +15065,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="7" t="s">
         <v>56</v>
       </c>
@@ -15084,7 +15085,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
         <v>52</v>
       </c>
@@ -15107,7 +15108,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
         <v>52</v>
       </c>
@@ -15127,7 +15128,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>56</v>
       </c>
@@ -15146,7 +15147,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>56</v>
       </c>
@@ -15168,7 +15169,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>56</v>
       </c>
@@ -15192,7 +15193,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="7" t="s">
         <v>52</v>
       </c>
@@ -15212,7 +15213,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
         <v>52</v>
       </c>
@@ -15232,7 +15233,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>56</v>
       </c>
@@ -15252,7 +15253,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="7" t="s">
         <v>52</v>
       </c>
@@ -15269,7 +15270,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
         <v>56</v>
       </c>
@@ -15291,7 +15292,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>56</v>
       </c>
@@ -15313,7 +15314,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>56</v>
       </c>
@@ -15337,7 +15338,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>56</v>
       </c>
@@ -15359,7 +15360,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>56</v>
       </c>
@@ -15385,7 +15386,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="7" t="s">
         <v>52</v>
       </c>
@@ -15405,7 +15406,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
         <v>52</v>
       </c>
@@ -15428,7 +15429,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>56</v>
       </c>
@@ -15450,7 +15451,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="7" t="s">
         <v>56</v>
       </c>
@@ -15467,7 +15468,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="7" t="s">
         <v>52</v>
       </c>
@@ -15490,7 +15491,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>56</v>
       </c>
@@ -15512,7 +15513,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>56</v>
       </c>
@@ -15534,7 +15535,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>56</v>
       </c>
@@ -15556,7 +15557,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>56</v>
       </c>
@@ -15580,7 +15581,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="7" t="s">
         <v>52</v>
       </c>
@@ -15605,7 +15606,7 @@
       <c r="L491" s="4"/>
       <c r="M491" s="4"/>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
         <v>44</v>
       </c>
@@ -15640,7 +15641,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>52</v>
       </c>
@@ -15657,7 +15658,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>56</v>
       </c>
@@ -15679,7 +15680,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="7" t="s">
         <v>56</v>
       </c>
@@ -15696,7 +15697,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="7" t="s">
         <v>44</v>
       </c>
@@ -15728,7 +15729,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="7" t="s">
         <v>44</v>
       </c>
@@ -15754,7 +15755,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="7" t="s">
         <v>56</v>
       </c>
@@ -15780,7 +15781,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="7" t="s">
         <v>44</v>
       </c>
@@ -15802,7 +15803,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>56</v>
       </c>
@@ -15821,7 +15822,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>56</v>
       </c>
@@ -15842,7 +15843,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="7" t="s">
         <v>56</v>
       </c>
@@ -15864,7 +15865,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
         <v>56</v>
       </c>
@@ -15886,7 +15887,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="7" t="s">
         <v>56</v>
       </c>
@@ -15908,7 +15909,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
         <v>56</v>
       </c>
@@ -15930,7 +15931,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="7" t="s">
         <v>44</v>
       </c>
@@ -15953,7 +15954,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>56</v>
       </c>
@@ -15975,7 +15976,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>56</v>
       </c>
@@ -15996,7 +15997,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="7" t="s">
         <v>56</v>
       </c>
@@ -16022,7 +16023,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="7" t="s">
         <v>56</v>
       </c>
@@ -16042,7 +16043,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>56</v>
       </c>
@@ -16063,7 +16064,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="7" t="s">
         <v>52</v>
       </c>
@@ -16083,7 +16084,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="7" t="s">
         <v>56</v>
       </c>
@@ -16109,7 +16110,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="7" t="s">
         <v>56</v>
       </c>
@@ -16129,7 +16130,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="7" t="s">
         <v>52</v>
       </c>
@@ -16151,7 +16152,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>56</v>
       </c>
@@ -16175,7 +16176,7 @@
       <c r="L516" s="9"/>
       <c r="M516" s="9"/>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>225</v>
       </c>
@@ -16197,7 +16198,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>56</v>
       </c>
@@ -16214,7 +16215,7 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="7" t="s">
         <v>52</v>
       </c>
@@ -16263,7 +16264,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
         <v>369</v>
       </c>
@@ -16283,7 +16284,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
         <v>369</v>
       </c>
@@ -16361,7 +16362,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
         <v>369</v>
       </c>
@@ -16500,7 +16501,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
         <v>52</v>
       </c>
@@ -16520,7 +16521,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="531" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>369</v>
       </c>
@@ -16601,7 +16602,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="7" t="s">
         <v>369</v>
       </c>
@@ -16656,7 +16657,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="536" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="7" t="s">
         <v>52</v>
       </c>
@@ -16676,7 +16677,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
         <v>52</v>
       </c>
@@ -16696,7 +16697,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="538" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="7" t="s">
         <v>369</v>
       </c>
@@ -16836,7 +16837,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="543" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
         <v>369</v>
       </c>
@@ -16914,7 +16915,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="546" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="7" t="s">
         <v>369</v>
       </c>
@@ -16972,7 +16973,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="548" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="7" t="s">
         <v>369</v>
       </c>
@@ -17044,7 +17045,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="551" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
         <v>369</v>
       </c>
@@ -17099,7 +17100,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="553" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
         <v>369</v>
       </c>
@@ -17122,7 +17123,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="554" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="7" t="s">
         <v>369</v>
       </c>
@@ -17200,7 +17201,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="557" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="7" t="s">
         <v>369</v>
       </c>
@@ -17275,7 +17276,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="560" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="7" t="s">
         <v>369</v>
       </c>
@@ -17295,7 +17296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="561" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="7" t="s">
         <v>369</v>
       </c>
@@ -17315,7 +17316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="7" t="s">
         <v>369</v>
       </c>
@@ -17527,7 +17528,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="569" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="7" t="s">
         <v>369</v>
       </c>
@@ -17588,7 +17589,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="571" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="7" t="s">
         <v>369</v>
       </c>
@@ -17605,7 +17606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="7" t="s">
         <v>369</v>
       </c>
@@ -17631,7 +17632,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="573" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="7" t="s">
         <v>369</v>
       </c>
@@ -17674,7 +17675,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="575" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="7" t="s">
         <v>56</v>
       </c>
@@ -17694,7 +17695,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="576" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="7" t="s">
         <v>56</v>
       </c>
@@ -17711,7 +17712,7 @@
         <v>44637</v>
       </c>
     </row>
-    <row r="577" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="7" t="s">
         <v>369</v>
       </c>
@@ -17762,7 +17763,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="579" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="7" t="s">
         <v>56</v>
       </c>
@@ -17785,7 +17786,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="580" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="7" t="s">
         <v>56</v>
       </c>
@@ -17805,7 +17806,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="581" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="7" t="s">
         <v>369</v>
       </c>
@@ -17822,7 +17823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="7" t="s">
         <v>56</v>
       </c>
@@ -17865,7 +17866,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="584" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="7" t="s">
         <v>56</v>
       </c>
@@ -17966,7 +17967,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="588" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
         <v>56</v>
       </c>
@@ -17986,7 +17987,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="589" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
         <v>52</v>
       </c>
@@ -18064,7 +18065,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="592" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="7" t="s">
         <v>56</v>
       </c>
@@ -18081,7 +18082,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="7" t="s">
         <v>56</v>
       </c>
@@ -18098,7 +18099,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>56</v>
       </c>
@@ -18119,7 +18120,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>56</v>
       </c>
@@ -18140,7 +18141,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>56</v>
       </c>
@@ -18161,7 +18162,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>56</v>
       </c>
@@ -18182,7 +18183,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="7" t="s">
         <v>44</v>
       </c>
@@ -18208,7 +18209,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>56</v>
       </c>
@@ -18230,7 +18231,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>56</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>56</v>
       </c>
@@ -18274,7 +18275,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>56</v>
       </c>
@@ -18298,7 +18299,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>56</v>
       </c>
@@ -18317,7 +18318,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="7" t="s">
         <v>56</v>
       </c>
@@ -18339,7 +18340,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
         <v>56</v>
       </c>
@@ -18356,7 +18357,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="7" t="s">
         <v>56</v>
       </c>
@@ -18376,7 +18377,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="7" t="s">
         <v>56</v>
       </c>
@@ -18399,7 +18400,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="7" t="s">
         <v>56</v>
       </c>
@@ -18422,7 +18423,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="7" t="s">
         <v>56</v>
       </c>
@@ -18441,7 +18442,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="7" t="s">
         <v>56</v>
       </c>
@@ -18458,7 +18459,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
         <v>56</v>
       </c>
@@ -18484,7 +18485,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="7" t="s">
         <v>56</v>
       </c>
@@ -18506,7 +18507,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="7" t="s">
         <v>56</v>
       </c>
@@ -18528,7 +18529,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="7" t="s">
         <v>56</v>
       </c>
@@ -18550,7 +18551,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="7" t="s">
         <v>56</v>
       </c>
@@ -18572,7 +18573,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="7" t="s">
         <v>44</v>
       </c>
@@ -18595,7 +18596,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="7" t="s">
         <v>56</v>
       </c>
@@ -18612,7 +18613,7 @@
         <v>44871</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="7" t="s">
         <v>56</v>
       </c>
@@ -18635,7 +18636,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="7" t="s">
         <v>56</v>
       </c>
@@ -18656,7 +18657,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="7" t="s">
         <v>56</v>
       </c>
@@ -18680,7 +18681,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>56</v>
       </c>
@@ -18702,7 +18703,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>56</v>
       </c>
@@ -18723,7 +18724,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="7" t="s">
         <v>44</v>
       </c>
@@ -18743,7 +18744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="7" t="s">
         <v>44</v>
       </c>
@@ -18763,7 +18764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="7" t="s">
         <v>44</v>
       </c>
@@ -18780,7 +18781,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="7" t="s">
         <v>44</v>
       </c>
@@ -18797,7 +18798,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="7" t="s">
         <v>44</v>
       </c>
@@ -18817,7 +18818,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="7" t="s">
         <v>44</v>
       </c>
@@ -18834,7 +18835,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="7" t="s">
         <v>725</v>
       </c>
@@ -18851,7 +18852,7 @@
         <v>44912</v>
       </c>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="7" t="s">
         <v>44</v>
       </c>
@@ -18871,7 +18872,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="7" t="s">
         <v>44</v>
       </c>
@@ -18888,7 +18889,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="7" t="s">
         <v>44</v>
       </c>
@@ -18905,7 +18906,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="7" t="s">
         <v>44</v>
       </c>
@@ -18928,7 +18929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="7" t="s">
         <v>44</v>
       </c>
@@ -18948,7 +18949,7 @@
         <v>44920</v>
       </c>
     </row>
-    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="7" t="s">
         <v>44</v>
       </c>
@@ -18965,7 +18966,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="7" t="s">
         <v>44</v>
       </c>
@@ -18982,7 +18983,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="637" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="7" t="s">
         <v>44</v>
       </c>
@@ -19011,7 +19012,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="7" t="s">
         <v>52</v>
       </c>
@@ -19028,7 +19029,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="7" t="s">
         <v>44</v>
       </c>
@@ -19060,7 +19061,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="7" t="s">
         <v>52</v>
       </c>
@@ -19077,7 +19078,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="641" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="7" t="s">
         <v>44</v>
       </c>
@@ -19100,7 +19101,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="642" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="7" t="s">
         <v>44</v>
       </c>
@@ -19123,7 +19124,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="643" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="7" t="s">
         <v>44</v>
       </c>
@@ -19140,7 +19141,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="644" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="7" t="s">
         <v>44</v>
       </c>
@@ -19157,7 +19158,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="645" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="7" t="s">
         <v>44</v>
       </c>
@@ -19174,7 +19175,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="646" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="7" t="s">
         <v>44</v>
       </c>
@@ -19194,7 +19195,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="647" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="7" t="s">
         <v>44</v>
       </c>
@@ -19211,7 +19212,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="648" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="7" t="s">
         <v>44</v>
       </c>
@@ -19228,7 +19229,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="649" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" s="7" t="s">
         <v>44</v>
       </c>
@@ -19251,7 +19252,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="650" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="7" t="s">
         <v>44</v>
       </c>
@@ -19274,7 +19275,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="651" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="7" t="s">
         <v>44</v>
       </c>
@@ -19291,7 +19292,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="652" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="7" t="s">
         <v>44</v>
       </c>
@@ -19317,7 +19318,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="653" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" s="7" t="s">
         <v>44</v>
       </c>
@@ -19340,7 +19341,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="654" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" s="7" t="s">
         <v>44</v>
       </c>
@@ -19363,7 +19364,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="655" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" s="7" t="s">
         <v>44</v>
       </c>
@@ -19383,7 +19384,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="656" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="7" t="s">
         <v>44</v>
       </c>
@@ -19403,7 +19404,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="657" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" s="7" t="s">
         <v>44</v>
       </c>
@@ -19423,7 +19424,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="658" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="7" t="s">
         <v>44</v>
       </c>
@@ -19443,7 +19444,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="659" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" s="7" t="s">
         <v>56</v>
       </c>
@@ -19463,7 +19464,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="660" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" s="7" t="s">
         <v>56</v>
       </c>
@@ -19483,7 +19484,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="661" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" s="7" t="s">
         <v>56</v>
       </c>
@@ -19500,7 +19501,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="662" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>56</v>
       </c>
@@ -19521,7 +19522,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="663" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" s="7" t="s">
         <v>44</v>
       </c>
@@ -19538,7 +19539,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="664" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" s="7" t="s">
         <v>44</v>
       </c>
@@ -19555,7 +19556,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="665" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="7" t="s">
         <v>44</v>
       </c>
@@ -19572,7 +19573,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="666" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" s="7" t="s">
         <v>44</v>
       </c>
@@ -19589,7 +19590,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="667" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" s="7" t="s">
         <v>44</v>
       </c>
@@ -19606,7 +19607,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="668" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" s="7" t="s">
         <v>44</v>
       </c>
@@ -19623,7 +19624,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="669" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" s="7" t="s">
         <v>56</v>
       </c>
@@ -19643,7 +19644,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="670" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" s="7" t="s">
         <v>56</v>
       </c>
@@ -19660,7 +19661,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="671" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" s="7" t="s">
         <v>44</v>
       </c>
@@ -19677,7 +19678,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="672" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="7" t="s">
         <v>56</v>
       </c>
@@ -19697,7 +19698,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="7" t="s">
         <v>56</v>
       </c>
@@ -19720,7 +19721,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" s="7" t="s">
         <v>52</v>
       </c>
@@ -19737,7 +19738,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="7" t="s">
         <v>52</v>
       </c>
@@ -19757,7 +19758,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="7" t="s">
         <v>44</v>
       </c>
@@ -19774,7 +19775,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="7" t="s">
         <v>56</v>
       </c>
@@ -19791,7 +19792,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="7" t="s">
         <v>44</v>
       </c>
@@ -19808,7 +19809,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="7" t="s">
         <v>56</v>
       </c>
@@ -19828,7 +19829,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" s="7" t="s">
         <v>56</v>
       </c>
@@ -19851,7 +19852,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="7" t="s">
         <v>52</v>
       </c>
@@ -19868,7 +19869,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="7" t="s">
         <v>52</v>
       </c>
@@ -19885,7 +19886,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="7" t="s">
         <v>52</v>
       </c>
@@ -19902,7 +19903,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="7" t="s">
         <v>56</v>
       </c>
@@ -19919,7 +19920,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="7" t="s">
         <v>56</v>
       </c>
@@ -19939,7 +19940,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" s="7" t="s">
         <v>56</v>
       </c>
@@ -19959,7 +19960,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" s="7" t="s">
         <v>52</v>
       </c>
@@ -19979,7 +19980,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="7" t="s">
         <v>56</v>
       </c>
@@ -20025,7 +20026,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="7" t="s">
         <v>52</v>
       </c>
@@ -20045,7 +20046,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="7" t="s">
         <v>52</v>
       </c>
@@ -20065,7 +20066,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" s="7" t="s">
         <v>52</v>
       </c>
@@ -20082,7 +20083,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" s="7" t="s">
         <v>52</v>
       </c>
@@ -20099,7 +20100,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" s="7" t="s">
         <v>56</v>
       </c>
@@ -20116,7 +20117,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" s="7" t="s">
         <v>56</v>
       </c>
@@ -20136,7 +20137,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="696" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" s="7" t="s">
         <v>56</v>
       </c>
@@ -20156,7 +20157,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="697" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="7" t="s">
         <v>56</v>
       </c>
@@ -20173,7 +20174,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="698" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="7" t="s">
         <v>768</v>
       </c>
@@ -20190,7 +20191,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="699" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" s="7" t="s">
         <v>56</v>
       </c>
@@ -20210,7 +20211,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="700" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" s="7" t="s">
         <v>56</v>
       </c>
@@ -20233,7 +20234,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" s="7" t="s">
         <v>56</v>
       </c>
@@ -20253,7 +20254,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="702" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" s="7" t="s">
         <v>56</v>
       </c>
@@ -20273,7 +20274,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="703" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" s="7" t="s">
         <v>56</v>
       </c>
@@ -20293,7 +20294,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="704" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" s="7" t="s">
         <v>56</v>
       </c>
@@ -20316,7 +20317,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" s="7" t="s">
         <v>56</v>
       </c>
@@ -20336,7 +20337,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" s="7" t="s">
         <v>52</v>
       </c>
@@ -20356,7 +20357,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" s="7" t="s">
         <v>56</v>
       </c>
@@ -20376,7 +20377,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
         <v>225</v>
       </c>
@@ -20398,7 +20399,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="7" t="s">
         <v>56</v>
       </c>
@@ -20418,7 +20419,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" s="7" t="s">
         <v>56</v>
       </c>
@@ -20438,7 +20439,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" s="7" t="s">
         <v>768</v>
       </c>
@@ -20461,7 +20462,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" s="7" t="s">
         <v>768</v>
       </c>
@@ -20484,7 +20485,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
         <v>56</v>
       </c>
@@ -20503,7 +20504,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" s="7" t="s">
         <v>56</v>
       </c>
@@ -20523,7 +20524,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" s="7" t="s">
         <v>56</v>
       </c>
@@ -20546,7 +20547,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="7" t="s">
         <v>52</v>
       </c>
@@ -20566,7 +20567,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" s="7" t="s">
         <v>44</v>
       </c>
@@ -20586,7 +20587,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" s="7" t="s">
         <v>768</v>
       </c>
@@ -20603,7 +20604,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" s="7" t="s">
         <v>56</v>
       </c>
@@ -20620,7 +20621,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" s="7" t="s">
         <v>56</v>
       </c>
@@ -20637,7 +20638,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="721" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" s="7" t="s">
         <v>56</v>
       </c>
@@ -20654,7 +20655,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="722" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" s="7" t="s">
         <v>56</v>
       </c>
@@ -20677,7 +20678,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="723" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" s="7" t="s">
         <v>44</v>
       </c>
@@ -20703,7 +20704,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="724" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" s="7" t="s">
         <v>52</v>
       </c>
@@ -20723,7 +20724,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="725" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" s="7" t="s">
         <v>56</v>
       </c>
@@ -20743,7 +20744,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="726" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" s="7" t="s">
         <v>768</v>
       </c>
@@ -20760,7 +20761,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="727" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" s="7" t="s">
         <v>56</v>
       </c>
@@ -20777,7 +20778,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="728" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" s="7" t="s">
         <v>52</v>
       </c>
@@ -20797,7 +20798,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="729" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" s="7" t="s">
         <v>44</v>
       </c>
@@ -20826,7 +20827,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="730" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="7" t="s">
         <v>44</v>
       </c>
@@ -20855,7 +20856,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="731" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" s="7" t="s">
         <v>52</v>
       </c>
@@ -20875,7 +20876,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="732" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" s="7" t="s">
         <v>52</v>
       </c>
@@ -20895,7 +20896,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="733" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" s="7" t="s">
         <v>56</v>
       </c>
@@ -20915,7 +20916,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="734" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" s="7" t="s">
         <v>56</v>
       </c>
@@ -20935,7 +20936,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="735" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" s="7" t="s">
         <v>56</v>
       </c>
@@ -20955,7 +20956,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="736" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="7" t="s">
         <v>56</v>
       </c>
@@ -20972,7 +20973,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" s="7" t="s">
         <v>56</v>
       </c>
@@ -20989,7 +20990,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" s="7" t="s">
         <v>56</v>
       </c>
@@ -21009,7 +21010,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" s="7" t="s">
         <v>52</v>
       </c>
@@ -21029,7 +21030,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" s="7" t="s">
         <v>52</v>
       </c>
@@ -21049,7 +21050,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" s="7" t="s">
         <v>52</v>
       </c>
@@ -21072,7 +21073,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" s="7" t="s">
         <v>56</v>
       </c>
@@ -21092,7 +21093,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" s="7" t="s">
         <v>56</v>
       </c>
@@ -21109,7 +21110,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" s="7" t="s">
         <v>52</v>
       </c>
@@ -21129,7 +21130,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" s="7" t="s">
         <v>52</v>
       </c>
@@ -21149,7 +21150,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" s="7" t="s">
         <v>56</v>
       </c>
@@ -21169,7 +21170,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" s="7" t="s">
         <v>56</v>
       </c>
@@ -21186,7 +21187,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" s="7" t="s">
         <v>56</v>
       </c>
@@ -21206,7 +21207,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" s="7" t="s">
         <v>44</v>
       </c>
@@ -21223,7 +21224,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" s="7" t="s">
         <v>56</v>
       </c>
@@ -21243,7 +21244,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" s="7" t="s">
         <v>56</v>
       </c>
@@ -21263,7 +21264,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" s="7" t="s">
         <v>56</v>
       </c>
@@ -21283,7 +21284,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" s="7" t="s">
         <v>56</v>
       </c>
@@ -21303,7 +21304,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" s="7" t="s">
         <v>56</v>
       </c>
@@ -21323,7 +21324,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" s="7" t="s">
         <v>56</v>
       </c>
@@ -21343,7 +21344,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" s="7" t="s">
         <v>56</v>
       </c>
@@ -21363,7 +21364,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" s="7" t="s">
         <v>56</v>
       </c>
@@ -21386,7 +21387,7 @@
       <c r="J757" s="4"/>
       <c r="K757" s="4"/>
     </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" s="7" t="s">
         <v>56</v>
       </c>
@@ -21403,7 +21404,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" s="7" t="s">
         <v>52</v>
       </c>
@@ -21423,7 +21424,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="760" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" s="7" t="s">
         <v>768</v>
       </c>
@@ -21440,7 +21441,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" s="7" t="s">
         <v>52</v>
       </c>
@@ -21460,7 +21461,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" s="7" t="s">
         <v>52</v>
       </c>
@@ -21477,7 +21478,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" s="7" t="s">
         <v>52</v>
       </c>
@@ -21610,7 +21611,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" s="7" t="s">
         <v>369</v>
       </c>
@@ -21636,7 +21637,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="769" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" s="7" t="s">
         <v>52</v>
       </c>
@@ -21685,7 +21686,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="771" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" s="7" t="s">
         <v>369</v>
       </c>
@@ -21708,7 +21709,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="772" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" s="7" t="s">
         <v>52</v>
       </c>
@@ -21728,7 +21729,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="773" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" s="7" t="s">
         <v>369</v>
       </c>
@@ -21757,7 +21758,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="774" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" s="7" t="s">
         <v>369</v>
       </c>
@@ -21809,7 +21810,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="776" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" s="7" t="s">
         <v>369</v>
       </c>
@@ -21878,7 +21879,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="779" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" s="7" t="s">
         <v>44</v>
       </c>
@@ -21933,7 +21934,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="781" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" s="7" t="s">
         <v>369</v>
       </c>
@@ -21962,7 +21963,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="782" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" s="7" t="s">
         <v>369</v>
       </c>
@@ -21985,7 +21986,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="783" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" s="7" t="s">
         <v>52</v>
       </c>
@@ -22005,7 +22006,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="784" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" s="7" t="s">
         <v>52</v>
       </c>
@@ -22054,7 +22055,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="786" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" s="7" t="s">
         <v>369</v>
       </c>
@@ -22106,7 +22107,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="788" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" s="7" t="s">
         <v>52</v>
       </c>
@@ -22126,7 +22127,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="789" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" s="7" t="s">
         <v>52</v>
       </c>
@@ -22236,7 +22237,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="793" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" s="7" t="s">
         <v>52</v>
       </c>
@@ -22256,7 +22257,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="794" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" s="7" t="s">
         <v>369</v>
       </c>
@@ -22276,7 +22277,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="795" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" s="7" t="s">
         <v>52</v>
       </c>
@@ -22296,7 +22297,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="796" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" s="7" t="s">
         <v>369</v>
       </c>
@@ -22429,7 +22430,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="801" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" s="7" t="s">
         <v>44</v>
       </c>
@@ -22513,7 +22514,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="804" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" s="7" t="s">
         <v>56</v>
       </c>
@@ -22533,7 +22534,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="805" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" s="7" t="s">
         <v>56</v>
       </c>
@@ -22550,7 +22551,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="806" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" s="7" t="s">
         <v>369</v>
       </c>
@@ -22564,7 +22565,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="807" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" s="7" t="s">
         <v>369</v>
       </c>
@@ -22575,7 +22576,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="808" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" s="7" t="s">
         <v>52</v>
       </c>
@@ -22595,7 +22596,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="809" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" s="7" t="s">
         <v>56</v>
       </c>
@@ -22644,7 +22645,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="811" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" s="7" t="s">
         <v>369</v>
       </c>
@@ -22664,7 +22665,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="812" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" s="7" t="s">
         <v>369</v>
       </c>
@@ -22730,7 +22731,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="815" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" s="7" t="s">
         <v>369</v>
       </c>
@@ -22750,7 +22751,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="816" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" s="7" t="s">
         <v>44</v>
       </c>
@@ -22770,7 +22771,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="817" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" s="7" t="s">
         <v>52</v>
       </c>
@@ -22819,7 +22820,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="819" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" s="7" t="s">
         <v>369</v>
       </c>
@@ -22871,7 +22872,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="821" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" s="7" t="s">
         <v>52</v>
       </c>
@@ -22891,7 +22892,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="822" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" s="7" t="s">
         <v>56</v>
       </c>
@@ -22911,7 +22912,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="823" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" s="7" t="s">
         <v>56</v>
       </c>
@@ -22928,7 +22929,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="824" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" s="7" t="s">
         <v>56</v>
       </c>
@@ -22948,7 +22949,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="825" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" s="7" t="s">
         <v>52</v>
       </c>
@@ -22971,7 +22972,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="826" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
         <v>56</v>
       </c>
@@ -22993,7 +22994,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="827" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>56</v>
       </c>
@@ -23017,7 +23018,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="828" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" s="7" t="s">
         <v>52</v>
       </c>
@@ -23037,7 +23038,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="829" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
         <v>56</v>
       </c>
@@ -23059,7 +23060,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="830" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>56</v>
       </c>
@@ -23083,7 +23084,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="831" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" s="7" t="s">
         <v>883</v>
       </c>
@@ -23100,7 +23101,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="832" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" s="7" t="s">
         <v>44</v>
       </c>
@@ -23117,7 +23118,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="833" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" s="7" t="s">
         <v>52</v>
       </c>
@@ -23140,7 +23141,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row r="834" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" s="7" t="s">
         <v>56</v>
       </c>
@@ -23160,7 +23161,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="835" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" s="7" t="s">
         <v>56</v>
       </c>
@@ -23177,7 +23178,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="836" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" s="7" t="s">
         <v>56</v>
       </c>
@@ -23197,7 +23198,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="837" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" s="7" t="s">
         <v>56</v>
       </c>
@@ -23214,7 +23215,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="838" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" s="7" t="s">
         <v>56</v>
       </c>
@@ -23236,7 +23237,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="839" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" s="7" t="s">
         <v>56</v>
       </c>
@@ -23260,7 +23261,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="840" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" s="7" t="s">
         <v>56</v>
       </c>
@@ -23280,7 +23281,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" s="7" t="s">
         <v>56</v>
       </c>
@@ -23297,7 +23298,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" s="7" t="s">
         <v>56</v>
       </c>
@@ -23314,7 +23315,7 @@
         <v>45409</v>
       </c>
     </row>
-    <row r="843" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" s="7" t="s">
         <v>56</v>
       </c>
@@ -23334,7 +23335,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" s="7" t="s">
         <v>56</v>
       </c>
@@ -23354,7 +23355,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" s="1" t="s">
         <v>56</v>
       </c>
@@ -23376,7 +23377,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="846" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
         <v>56</v>
       </c>
@@ -23519,7 +23520,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" s="7" t="s">
         <v>56</v>
       </c>
@@ -23539,7 +23540,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852" s="7" t="s">
         <v>52</v>
       </c>
@@ -23559,7 +23560,7 @@
         <v>45428</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" s="7" t="s">
         <v>56</v>
       </c>
@@ -23576,7 +23577,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854" s="7" t="s">
         <v>56</v>
       </c>
@@ -23599,7 +23600,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" s="7" t="s">
         <v>56</v>
       </c>
@@ -23619,7 +23620,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" s="7" t="s">
         <v>56</v>
       </c>
@@ -23639,7 +23640,7 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857" s="7" t="s">
         <v>56</v>
       </c>
@@ -23662,7 +23663,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" s="7" t="s">
         <v>52</v>
       </c>
@@ -23682,7 +23683,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" s="7" t="s">
         <v>56</v>
       </c>
@@ -23702,7 +23703,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860" s="7" t="s">
         <v>52</v>
       </c>
@@ -23722,7 +23723,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" s="7" t="s">
         <v>56</v>
       </c>
@@ -23742,7 +23743,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862" s="7" t="s">
         <v>56</v>
       </c>
@@ -23762,7 +23763,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" s="7" t="s">
         <v>56</v>
       </c>
@@ -23782,7 +23783,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="864" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864" s="7" t="s">
         <v>56</v>
       </c>
@@ -23802,7 +23803,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="865" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" s="7" t="s">
         <v>44</v>
       </c>
@@ -23828,7 +23829,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="866" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866" s="7" t="s">
         <v>52</v>
       </c>
@@ -23854,7 +23855,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="867" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" s="7" t="s">
         <v>56</v>
       </c>
@@ -23871,7 +23872,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="868" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868" s="7" t="s">
         <v>56</v>
       </c>
@@ -23893,7 +23894,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="869" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" s="7" t="s">
         <v>56</v>
       </c>
@@ -23916,7 +23917,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="870" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870" s="7" t="s">
         <v>56</v>
       </c>
@@ -23933,7 +23934,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="871" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" s="7" t="s">
         <v>52</v>
       </c>
@@ -23959,7 +23960,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="872" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" s="7" t="s">
         <v>56</v>
       </c>
@@ -23976,7 +23977,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="873" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" s="7" t="s">
         <v>56</v>
       </c>
@@ -23996,7 +23997,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="874" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874" s="7" t="s">
         <v>56</v>
       </c>
@@ -24016,7 +24017,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="875" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875" s="7" t="s">
         <v>56</v>
       </c>
@@ -24033,7 +24034,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="876" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" s="7" t="s">
         <v>52</v>
       </c>
@@ -24050,7 +24051,7 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="877" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" s="7" t="s">
         <v>52</v>
       </c>
@@ -24073,7 +24074,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="878" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" s="7" t="s">
         <v>52</v>
       </c>
@@ -24093,7 +24094,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="879" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" s="7" t="s">
         <v>56</v>
       </c>
@@ -24126,11 +24127,17 @@
       <c r="G880" s="1">
         <v>45478</v>
       </c>
+      <c r="L880" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="M880" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="Q880" s="7" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="881" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" s="7" t="s">
         <v>44</v>
       </c>
@@ -24150,7 +24157,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="882" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882" s="7" t="s">
         <v>768</v>
       </c>
@@ -24170,7 +24177,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="883" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" s="7" t="s">
         <v>44</v>
       </c>
@@ -24187,7 +24194,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="884" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" s="7" t="s">
         <v>44</v>
       </c>
@@ -24204,7 +24211,7 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="885" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" s="7" t="s">
         <v>943</v>
       </c>
@@ -24221,7 +24228,7 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="886" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" s="7" t="s">
         <v>44</v>
       </c>
@@ -24244,7 +24251,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="887" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" s="7" t="s">
         <v>52</v>
       </c>
@@ -24261,7 +24268,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="888" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" s="7" t="s">
         <v>44</v>
       </c>
@@ -24284,7 +24291,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="889" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" s="7" t="s">
         <v>52</v>
       </c>
@@ -24319,7 +24326,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="890" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" s="7" t="s">
         <v>52</v>
       </c>
@@ -24351,7 +24358,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="891" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" s="7" t="s">
         <v>44</v>
       </c>
@@ -24380,7 +24387,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="892" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892" s="7" t="s">
         <v>56</v>
       </c>
@@ -24397,7 +24404,7 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="893" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" s="7" t="s">
         <v>56</v>
       </c>
@@ -24417,7 +24424,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="894" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" s="7" t="s">
         <v>44</v>
       </c>
@@ -24437,7 +24444,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="895" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" s="7" t="s">
         <v>943</v>
       </c>
@@ -24466,7 +24473,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="896" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" s="7" t="s">
         <v>56</v>
       </c>
@@ -24486,7 +24493,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="897" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" s="7" t="s">
         <v>52</v>
       </c>
@@ -24518,7 +24525,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="898" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" s="7" t="s">
         <v>44</v>
       </c>
@@ -24541,7 +24548,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="899" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" s="7" t="s">
         <v>56</v>
       </c>
@@ -24564,7 +24571,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="900" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" s="7" t="s">
         <v>56</v>
       </c>
@@ -24584,7 +24591,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="901" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" s="7" t="s">
         <v>56</v>
       </c>
@@ -24601,7 +24608,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="902" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" s="7" t="s">
         <v>44</v>
       </c>
@@ -24624,7 +24631,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="903" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" s="7" t="s">
         <v>44</v>
       </c>
@@ -24647,7 +24654,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="904" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" s="7" t="s">
         <v>44</v>
       </c>
@@ -24673,7 +24680,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="905" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" s="7" t="s">
         <v>56</v>
       </c>
@@ -24693,7 +24700,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="906" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906" s="7" t="s">
         <v>44</v>
       </c>
@@ -24713,7 +24720,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="907" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" s="7" t="s">
         <v>52</v>
       </c>
@@ -24748,7 +24755,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="908" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" s="7" t="s">
         <v>52</v>
       </c>
@@ -24777,7 +24784,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="909" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" s="7" t="s">
         <v>52</v>
       </c>
@@ -24806,7 +24813,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="910" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" s="7" t="s">
         <v>225</v>
       </c>
@@ -24826,7 +24833,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="911" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" s="7" t="s">
         <v>44</v>
       </c>
@@ -24846,7 +24853,7 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="912" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" s="7" t="s">
         <v>52</v>
       </c>
@@ -24866,7 +24873,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="913" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" s="7" t="s">
         <v>52</v>
       </c>
@@ -24892,7 +24899,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="914" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" s="7" t="s">
         <v>56</v>
       </c>
@@ -24912,7 +24919,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="915" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" s="7" t="s">
         <v>52</v>
       </c>
@@ -24932,7 +24939,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="916" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" s="7" t="s">
         <v>52</v>
       </c>
@@ -24958,7 +24965,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="917" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" s="7" t="s">
         <v>44</v>
       </c>
@@ -24987,7 +24994,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="918" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" s="7" t="s">
         <v>56</v>
       </c>
@@ -25007,7 +25014,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="919" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" s="7" t="s">
         <v>56</v>
       </c>
@@ -25027,7 +25034,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="920" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" s="7" t="s">
         <v>56</v>
       </c>
@@ -25047,7 +25054,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="921" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" s="7" t="s">
         <v>56</v>
       </c>
@@ -25067,7 +25074,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="922" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" s="7" t="s">
         <v>52</v>
       </c>
@@ -25099,7 +25106,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="923" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" s="7" t="s">
         <v>56</v>
       </c>
@@ -25116,7 +25123,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="924" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" s="7" t="s">
         <v>56</v>
       </c>
@@ -25138,7 +25145,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="925" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" s="7" t="s">
         <v>56</v>
       </c>
@@ -25160,7 +25167,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="926" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" s="7" t="s">
         <v>56</v>
       </c>
@@ -25182,7 +25189,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="927" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" s="7" t="s">
         <v>56</v>
       </c>
@@ -25204,7 +25211,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="928" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" s="7" t="s">
         <v>52</v>
       </c>
@@ -25236,7 +25243,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="929" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" s="7" t="s">
         <v>52</v>
       </c>
@@ -25268,7 +25275,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="930" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" s="7" t="s">
         <v>52</v>
       </c>
@@ -25288,7 +25295,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="931" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" s="7" t="s">
         <v>52</v>
       </c>
@@ -25308,7 +25315,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="932" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" s="7" t="s">
         <v>52</v>
       </c>
@@ -25340,7 +25347,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="933" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" s="7" t="s">
         <v>56</v>
       </c>
@@ -25360,7 +25367,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="934" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" s="7" t="s">
         <v>56</v>
       </c>
@@ -25377,7 +25384,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="935" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" s="7" t="s">
         <v>52</v>
       </c>
@@ -25412,7 +25419,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="936" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" s="7" t="s">
         <v>52</v>
       </c>
@@ -25438,7 +25445,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="937" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" s="7" t="s">
         <v>52</v>
       </c>
@@ -25476,7 +25483,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="938" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" s="7" t="s">
         <v>56</v>
       </c>
@@ -25499,7 +25506,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="939" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" s="7" t="s">
         <v>52</v>
       </c>
@@ -25519,7 +25526,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="940" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" s="7" t="s">
         <v>52</v>
       </c>
@@ -25551,7 +25558,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="941" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" s="7" t="s">
         <v>52</v>
       </c>
@@ -25586,7 +25593,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="942" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" s="7" t="s">
         <v>52</v>
       </c>
@@ -25609,7 +25616,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="943" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" s="7" t="s">
         <v>52</v>
       </c>
@@ -25644,7 +25651,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="944" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" s="7" t="s">
         <v>52</v>
       </c>
@@ -25673,7 +25680,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" s="7" t="s">
         <v>44</v>
       </c>
@@ -25693,7 +25700,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" s="7" t="s">
         <v>56</v>
       </c>
@@ -25710,7 +25717,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" s="7" t="s">
         <v>56</v>
       </c>
@@ -25730,7 +25737,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" s="7" t="s">
         <v>56</v>
       </c>
@@ -25750,7 +25757,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949" s="7" t="s">
         <v>52</v>
       </c>
@@ -25782,7 +25789,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950" s="7" t="s">
         <v>52</v>
       </c>
@@ -25814,7 +25821,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" s="7" t="s">
         <v>56</v>
       </c>
@@ -25834,7 +25841,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" s="7" t="s">
         <v>56</v>
       </c>
@@ -25854,7 +25861,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" s="7" t="s">
         <v>52</v>
       </c>
@@ -25886,7 +25893,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" s="7" t="s">
         <v>56</v>
       </c>
@@ -25906,7 +25913,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" s="7" t="s">
         <v>56</v>
       </c>
@@ -25929,7 +25936,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" s="7" t="s">
         <v>56</v>
       </c>
@@ -25949,7 +25956,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957" s="7" t="s">
         <v>56</v>
       </c>
@@ -25969,7 +25976,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" s="7" t="s">
         <v>52</v>
       </c>
@@ -25995,7 +26002,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" s="7" t="s">
         <v>52</v>
       </c>
@@ -26030,7 +26037,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960" s="7" t="s">
         <v>52</v>
       </c>
@@ -26059,7 +26066,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="961" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" s="7" t="s">
         <v>52</v>
       </c>
@@ -26094,7 +26101,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="962" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" s="7" t="s">
         <v>56</v>
       </c>
@@ -26114,7 +26121,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="963" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" s="7" t="s">
         <v>56</v>
       </c>
@@ -26137,7 +26144,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="964" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964" s="7" t="s">
         <v>56</v>
       </c>
@@ -26163,7 +26170,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="965" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965" s="7" t="s">
         <v>52</v>
       </c>
@@ -26195,7 +26202,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="966" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" s="7" t="s">
         <v>44</v>
       </c>
@@ -26215,7 +26222,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="967" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" s="7" t="s">
         <v>52</v>
       </c>
@@ -26250,7 +26257,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="968" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" s="7" t="s">
         <v>52</v>
       </c>
@@ -26282,7 +26289,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="969" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969" s="7" t="s">
         <v>52</v>
       </c>
@@ -26343,7 +26350,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="971" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971" s="7" t="s">
         <v>52</v>
       </c>
@@ -26372,7 +26379,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="972" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" s="7" t="s">
         <v>52</v>
       </c>
@@ -26404,7 +26411,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="973" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973" s="7" t="s">
         <v>52</v>
       </c>
@@ -26439,7 +26446,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="974" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974" s="7" t="s">
         <v>52</v>
       </c>
@@ -26469,6 +26476,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U974" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Skitour"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U937">
     <sortCondition ref="G2:G937"/>
   </sortState>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46B83E6-86A0-4288-8263-144A8877F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4A05D4-DA69-4D33-B809-F961EAD132C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5464" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5491" uniqueCount="1060">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3191,6 +3191,18 @@
   </si>
   <si>
     <t>Bsangtenfluh</t>
+  </si>
+  <si>
+    <t>BernerOberland</t>
+  </si>
+  <si>
+    <t>Yetihuette</t>
+  </si>
+  <si>
+    <t>Hausen</t>
+  </si>
+  <si>
+    <t>01:57:30.0</t>
   </si>
 </sst>
 </file>
@@ -3718,12 +3730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U974"/>
+  <dimension ref="A1:U979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K152" sqref="K152"/>
+      <pane ySplit="1" topLeftCell="A948" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L979" sqref="L979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3817,7 +3828,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3845,7 +3856,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3953,7 +3964,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -3981,7 +3992,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -4041,7 +4052,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4073,7 +4084,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -4093,7 +4104,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4116,7 +4127,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -4138,7 +4149,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -4164,7 +4175,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -4186,7 +4197,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -4210,7 +4221,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4232,7 +4243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4254,7 +4265,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4276,7 +4287,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -4324,7 +4335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -4347,7 +4358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -4539,7 +4550,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4569,7 +4580,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4592,7 +4603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4620,7 +4631,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -4648,7 +4659,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -4677,7 +4688,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -4728,7 +4739,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4756,7 +4767,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4784,7 +4795,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4814,7 +4825,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -4836,7 +4847,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4862,7 +4873,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4884,7 +4895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -4914,7 +4925,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -4947,7 +4958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -4975,7 +4986,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5120,7 +5131,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -5148,7 +5159,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -5176,7 +5187,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5209,7 +5220,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -5237,7 +5248,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5270,7 +5281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -5298,7 +5309,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5391,7 +5402,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5424,7 +5435,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -5444,7 +5455,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>52</v>
       </c>
@@ -5472,7 +5483,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>52</v>
       </c>
@@ -5500,7 +5511,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>52</v>
       </c>
@@ -5528,7 +5539,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>52</v>
       </c>
@@ -5631,7 +5642,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>52</v>
       </c>
@@ -5659,7 +5670,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>52</v>
       </c>
@@ -5687,7 +5698,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>52</v>
       </c>
@@ -5707,7 +5718,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -5727,7 +5738,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -5747,7 +5758,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
@@ -5767,7 +5778,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -5795,7 +5806,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
@@ -5815,7 +5826,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -5837,7 +5848,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -5861,7 +5872,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>52</v>
       </c>
@@ -5889,7 +5900,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>44</v>
       </c>
@@ -5909,7 +5920,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -5937,7 +5948,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -5957,7 +5968,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -5977,7 +5988,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -5997,7 +6008,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -6017,7 +6028,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>52</v>
       </c>
@@ -6037,7 +6048,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -6083,7 +6094,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>52</v>
       </c>
@@ -6111,7 +6122,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
@@ -6142,7 +6153,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>52</v>
       </c>
@@ -6162,7 +6173,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>52</v>
       </c>
@@ -6182,7 +6193,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
@@ -6228,7 +6239,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>52</v>
       </c>
@@ -6248,7 +6259,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -6268,7 +6279,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>52</v>
       </c>
@@ -6288,7 +6299,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>52</v>
       </c>
@@ -6308,7 +6319,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>52</v>
       </c>
@@ -6328,7 +6339,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>52</v>
       </c>
@@ -6356,7 +6367,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -6387,7 +6398,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>52</v>
       </c>
@@ -6407,7 +6418,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>52</v>
       </c>
@@ -6435,7 +6446,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>52</v>
       </c>
@@ -6466,7 +6477,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>52</v>
       </c>
@@ -6486,7 +6497,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -6516,7 +6527,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>149</v>
@@ -6542,7 +6553,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>52</v>
       </c>
@@ -6573,7 +6584,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -6598,7 +6609,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>52</v>
       </c>
@@ -6618,7 +6629,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>52</v>
       </c>
@@ -6638,7 +6649,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>52</v>
       </c>
@@ -6684,7 +6695,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -6706,7 +6717,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -6734,7 +6745,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -6764,7 +6775,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -6788,7 +6799,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -6818,7 +6829,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>149</v>
@@ -6844,7 +6855,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>52</v>
       </c>
@@ -6872,7 +6883,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -6902,7 +6913,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -6932,7 +6943,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -6958,7 +6969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -6984,7 +6995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>52</v>
       </c>
@@ -7004,7 +7015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -7034,7 +7045,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -7060,7 +7071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>52</v>
       </c>
@@ -7080,7 +7091,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
@@ -7108,7 +7119,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>56</v>
       </c>
@@ -7134,7 +7145,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>56</v>
       </c>
@@ -7156,7 +7167,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
@@ -7178,7 +7189,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -7202,7 +7213,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
@@ -7228,7 +7239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -7252,7 +7263,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>52</v>
       </c>
@@ -7275,7 +7286,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>52</v>
       </c>
@@ -7298,7 +7309,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
@@ -7328,7 +7339,7 @@
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
@@ -7350,7 +7361,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>56</v>
       </c>
@@ -7374,7 +7385,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>56</v>
       </c>
@@ -7400,7 +7411,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>56</v>
       </c>
@@ -7422,7 +7433,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>56</v>
       </c>
@@ -7446,7 +7457,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>52</v>
       </c>
@@ -7469,7 +7480,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>52</v>
       </c>
@@ -7492,7 +7503,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>52</v>
       </c>
@@ -7691,7 +7702,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>52</v>
       </c>
@@ -7742,7 +7753,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>52</v>
       </c>
@@ -7762,7 +7773,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>52</v>
       </c>
@@ -7875,7 +7886,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>52</v>
       </c>
@@ -7898,7 +7909,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>52</v>
       </c>
@@ -7918,7 +7929,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>52</v>
       </c>
@@ -7941,7 +7952,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>52</v>
       </c>
@@ -8063,7 +8074,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>56</v>
       </c>
@@ -8085,7 +8096,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>56</v>
       </c>
@@ -8109,7 +8120,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>149</v>
@@ -8127,7 +8138,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>52</v>
       </c>
@@ -8147,7 +8158,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>52</v>
       </c>
@@ -8167,7 +8178,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>52</v>
       </c>
@@ -8190,7 +8201,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>52</v>
       </c>
@@ -8212,7 +8223,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>56</v>
       </c>
@@ -8232,7 +8243,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>225</v>
       </c>
@@ -8254,7 +8265,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>56</v>
       </c>
@@ -8284,7 +8295,7 @@
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>56</v>
       </c>
@@ -8310,7 +8321,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>52</v>
       </c>
@@ -8333,7 +8344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>56</v>
       </c>
@@ -8361,7 +8372,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>56</v>
       </c>
@@ -8389,7 +8400,7 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>56</v>
       </c>
@@ -8417,7 +8428,7 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>56</v>
       </c>
@@ -8447,7 +8458,7 @@
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>56</v>
       </c>
@@ -8473,7 +8484,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>56</v>
       </c>
@@ -8497,7 +8508,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>56</v>
       </c>
@@ -8523,7 +8534,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>52</v>
       </c>
@@ -8545,7 +8556,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -8567,7 +8578,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>225</v>
       </c>
@@ -8589,7 +8600,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>56</v>
       </c>
@@ -8611,7 +8622,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>52</v>
       </c>
@@ -8633,7 +8644,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
@@ -8658,7 +8669,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>52</v>
       </c>
@@ -8681,7 +8692,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>52</v>
       </c>
@@ -8837,7 +8848,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>52</v>
       </c>
@@ -8857,7 +8868,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>52</v>
       </c>
@@ -8880,7 +8891,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>56</v>
       </c>
@@ -8911,7 +8922,7 @@
       <c r="P204" s="6"/>
       <c r="U204" s="11"/>
     </row>
-    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>56</v>
       </c>
@@ -8935,7 +8946,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>56</v>
       </c>
@@ -8963,7 +8974,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>56</v>
       </c>
@@ -8991,7 +9002,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>56</v>
       </c>
@@ -9013,7 +9024,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>56</v>
       </c>
@@ -9037,7 +9048,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>56</v>
       </c>
@@ -9057,7 +9068,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>56</v>
       </c>
@@ -9077,7 +9088,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>52</v>
       </c>
@@ -9099,7 +9110,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>56</v>
       </c>
@@ -9124,7 +9135,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -9149,7 +9160,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>56</v>
       </c>
@@ -9169,7 +9180,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>56</v>
       </c>
@@ -9189,7 +9200,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -9214,7 +9225,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>56</v>
       </c>
@@ -9236,7 +9247,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>56</v>
       </c>
@@ -9258,7 +9269,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>56</v>
       </c>
@@ -9280,7 +9291,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
@@ -9303,7 +9314,7 @@
       </c>
       <c r="U221" s="11"/>
     </row>
-    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9335,7 +9346,7 @@
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>56</v>
       </c>
@@ -9357,7 +9368,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>56</v>
       </c>
@@ -9379,7 +9390,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>56</v>
       </c>
@@ -9403,7 +9414,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>56</v>
       </c>
@@ -9425,7 +9436,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>56</v>
       </c>
@@ -9449,7 +9460,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>56</v>
       </c>
@@ -9471,7 +9482,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>56</v>
       </c>
@@ -9493,7 +9504,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>56</v>
       </c>
@@ -9515,7 +9526,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>56</v>
       </c>
@@ -9537,7 +9548,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>56</v>
       </c>
@@ -9559,7 +9570,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>56</v>
       </c>
@@ -9581,7 +9592,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>56</v>
       </c>
@@ -9603,7 +9614,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>225</v>
       </c>
@@ -9625,7 +9636,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>56</v>
       </c>
@@ -9651,7 +9662,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>56</v>
       </c>
@@ -9673,7 +9684,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>56</v>
       </c>
@@ -9695,7 +9706,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>56</v>
       </c>
@@ -9717,7 +9728,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>56</v>
       </c>
@@ -9741,7 +9752,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>56</v>
       </c>
@@ -9767,7 +9778,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
@@ -9787,7 +9798,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
@@ -9807,7 +9818,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
@@ -9827,7 +9838,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>56</v>
       </c>
@@ -9851,7 +9862,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>56</v>
       </c>
@@ -9877,7 +9888,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>56</v>
       </c>
@@ -9903,7 +9914,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>52</v>
       </c>
@@ -9925,7 +9936,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>56</v>
       </c>
@@ -9947,7 +9958,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>225</v>
       </c>
@@ -9972,7 +9983,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>56</v>
       </c>
@@ -9994,7 +10005,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>56</v>
       </c>
@@ -10016,7 +10027,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>56</v>
       </c>
@@ -10038,7 +10049,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>56</v>
       </c>
@@ -10060,7 +10071,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>56</v>
       </c>
@@ -10086,7 +10097,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>52</v>
       </c>
@@ -10106,7 +10117,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>56</v>
       </c>
@@ -10128,7 +10139,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>56</v>
       </c>
@@ -10152,7 +10163,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>56</v>
       </c>
@@ -10172,7 +10183,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>56</v>
       </c>
@@ -10192,7 +10203,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>56</v>
       </c>
@@ -10212,7 +10223,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>56</v>
       </c>
@@ -10234,7 +10245,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>56</v>
       </c>
@@ -10258,7 +10269,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>56</v>
       </c>
@@ -10280,7 +10291,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>52</v>
       </c>
@@ -10302,7 +10313,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>225</v>
       </c>
@@ -10324,7 +10335,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>56</v>
       </c>
@@ -10344,7 +10355,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -10366,7 +10377,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>56</v>
       </c>
@@ -10390,7 +10401,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>56</v>
       </c>
@@ -10414,7 +10425,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>56</v>
       </c>
@@ -10440,7 +10451,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>56</v>
       </c>
@@ -10462,7 +10473,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>56</v>
       </c>
@@ -10486,7 +10497,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>56</v>
       </c>
@@ -10505,7 +10516,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>56</v>
       </c>
@@ -10528,7 +10539,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>56</v>
       </c>
@@ -10552,7 +10563,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>56</v>
       </c>
@@ -10578,7 +10589,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>56</v>
       </c>
@@ -10597,7 +10608,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>52</v>
       </c>
@@ -10621,7 +10632,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>56</v>
       </c>
@@ -10644,7 +10655,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>56</v>
       </c>
@@ -10667,7 +10678,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>56</v>
       </c>
@@ -10689,7 +10700,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>56</v>
       </c>
@@ -10711,7 +10722,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>56</v>
       </c>
@@ -10730,7 +10741,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>56</v>
       </c>
@@ -10753,7 +10764,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>56</v>
       </c>
@@ -10779,7 +10790,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>56</v>
       </c>
@@ -10805,7 +10816,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>56</v>
       </c>
@@ -10828,7 +10839,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>52</v>
       </c>
@@ -10851,7 +10862,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>52</v>
       </c>
@@ -10874,7 +10885,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>56</v>
       </c>
@@ -10898,7 +10909,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>56</v>
       </c>
@@ -10920,7 +10931,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>56</v>
       </c>
@@ -10944,7 +10955,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>52</v>
       </c>
@@ -10970,7 +10981,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>52</v>
       </c>
@@ -10993,7 +11004,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>52</v>
       </c>
@@ -11016,7 +11027,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>52</v>
       </c>
@@ -11039,7 +11050,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>56</v>
       </c>
@@ -11061,7 +11072,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>56</v>
       </c>
@@ -11085,7 +11096,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>56</v>
       </c>
@@ -11105,7 +11116,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>56</v>
       </c>
@@ -11125,7 +11136,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>56</v>
       </c>
@@ -11147,7 +11158,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>56</v>
       </c>
@@ -11171,7 +11182,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>52</v>
       </c>
@@ -11191,7 +11202,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>56</v>
       </c>
@@ -11225,7 +11236,7 @@
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>56</v>
       </c>
@@ -11247,7 +11258,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>56</v>
       </c>
@@ -11271,7 +11282,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>56</v>
       </c>
@@ -11293,7 +11304,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>56</v>
       </c>
@@ -11317,7 +11328,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>56</v>
       </c>
@@ -11337,7 +11348,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>225</v>
       </c>
@@ -11446,7 +11457,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
         <v>369</v>
       </c>
@@ -11506,7 +11517,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
         <v>369</v>
       </c>
@@ -11532,7 +11543,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
         <v>369</v>
       </c>
@@ -11552,7 +11563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>369</v>
       </c>
@@ -11601,7 +11612,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>369</v>
       </c>
@@ -11647,7 +11658,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>369</v>
       </c>
@@ -11670,7 +11681,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>369</v>
       </c>
@@ -11690,7 +11701,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>369</v>
       </c>
@@ -11710,7 +11721,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>369</v>
       </c>
@@ -11730,7 +11741,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>369</v>
       </c>
@@ -11753,7 +11764,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>52</v>
       </c>
@@ -11776,7 +11787,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>369</v>
       </c>
@@ -11799,7 +11810,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
         <v>369</v>
       </c>
@@ -11822,7 +11833,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>369</v>
       </c>
@@ -11839,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>369</v>
       </c>
@@ -11856,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>369</v>
       </c>
@@ -11876,7 +11887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>369</v>
       </c>
@@ -11896,7 +11907,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>369</v>
       </c>
@@ -11945,7 +11956,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>369</v>
       </c>
@@ -11994,7 +12005,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
         <v>369</v>
       </c>
@@ -12046,7 +12057,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
         <v>369</v>
       </c>
@@ -12072,7 +12083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
         <v>369</v>
       </c>
@@ -12089,7 +12100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
         <v>369</v>
       </c>
@@ -12112,7 +12123,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
         <v>369</v>
       </c>
@@ -12157,7 +12168,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
         <v>369</v>
       </c>
@@ -12209,7 +12220,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
         <v>369</v>
       </c>
@@ -12226,7 +12237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
         <v>369</v>
       </c>
@@ -12310,7 +12321,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
         <v>369</v>
       </c>
@@ -12368,7 +12379,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
         <v>369</v>
       </c>
@@ -12388,7 +12399,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
         <v>369</v>
       </c>
@@ -12417,7 +12428,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
         <v>369</v>
       </c>
@@ -12563,7 +12574,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
         <v>369</v>
       </c>
@@ -12615,7 +12626,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
         <v>56</v>
       </c>
@@ -12635,7 +12646,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
         <v>369</v>
       </c>
@@ -12773,7 +12784,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="369" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
         <v>369</v>
       </c>
@@ -12825,7 +12836,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="371" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>369</v>
       </c>
@@ -12868,7 +12879,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="373" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>369</v>
       </c>
@@ -13177,7 +13188,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="384" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>56</v>
       </c>
@@ -13197,7 +13208,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="385" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>56</v>
       </c>
@@ -13219,7 +13230,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="386" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>56</v>
       </c>
@@ -13304,7 +13315,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="389" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>56</v>
       </c>
@@ -13327,7 +13338,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="390" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>56</v>
       </c>
@@ -13349,7 +13360,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>56</v>
       </c>
@@ -13411,7 +13422,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="393" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A393" s="7" t="s">
         <v>56</v>
       </c>
@@ -13460,7 +13471,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>56</v>
       </c>
@@ -13483,7 +13494,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="396" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>56</v>
       </c>
@@ -13506,7 +13517,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="397" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>56</v>
       </c>
@@ -13526,7 +13537,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="398" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>56</v>
       </c>
@@ -13607,7 +13618,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="401" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>56</v>
       </c>
@@ -13653,7 +13664,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="403" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
         <v>56</v>
       </c>
@@ -13676,7 +13687,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
         <v>56</v>
       </c>
@@ -13696,7 +13707,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="405" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
         <v>56</v>
       </c>
@@ -13713,7 +13724,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="406" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
         <v>56</v>
       </c>
@@ -13733,7 +13744,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
         <v>56</v>
       </c>
@@ -13753,7 +13764,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
         <v>56</v>
       </c>
@@ -13773,7 +13784,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="409" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
         <v>52</v>
       </c>
@@ -13793,7 +13804,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="410" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A410" s="7" t="s">
         <v>56</v>
       </c>
@@ -13810,7 +13821,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
         <v>56</v>
       </c>
@@ -13859,7 +13870,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="413" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
         <v>56</v>
       </c>
@@ -13879,7 +13890,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="414" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
         <v>56</v>
       </c>
@@ -13992,7 +14003,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>56</v>
       </c>
@@ -14012,7 +14023,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>56</v>
       </c>
@@ -14032,7 +14043,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>56</v>
       </c>
@@ -14052,7 +14063,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>56</v>
       </c>
@@ -14072,7 +14083,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>56</v>
       </c>
@@ -14095,7 +14106,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>56</v>
       </c>
@@ -14126,7 +14137,7 @@
       <c r="L423" s="12"/>
       <c r="M423" s="12"/>
     </row>
-    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>56</v>
       </c>
@@ -14143,7 +14154,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>56</v>
       </c>
@@ -14163,7 +14174,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>56</v>
       </c>
@@ -14183,7 +14194,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>56</v>
       </c>
@@ -14205,7 +14216,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>56</v>
       </c>
@@ -14228,7 +14239,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="429" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>56</v>
       </c>
@@ -14254,7 +14265,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A430" s="7" t="s">
         <v>56</v>
       </c>
@@ -14271,7 +14282,7 @@
         <v>44360</v>
       </c>
     </row>
-    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>56</v>
       </c>
@@ -14294,7 +14305,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>56</v>
       </c>
@@ -14316,7 +14327,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>56</v>
       </c>
@@ -14338,7 +14349,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="434" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
         <v>56</v>
       </c>
@@ -14360,7 +14371,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="435" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>56</v>
       </c>
@@ -14384,7 +14395,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
         <v>56</v>
       </c>
@@ -14410,7 +14421,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>56</v>
       </c>
@@ -14430,7 +14441,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>56</v>
       </c>
@@ -14447,7 +14458,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>56</v>
       </c>
@@ -14469,7 +14480,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>56</v>
       </c>
@@ -14493,7 +14504,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A441" s="7" t="s">
         <v>56</v>
       </c>
@@ -14513,7 +14524,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A442" s="7" t="s">
         <v>56</v>
       </c>
@@ -14530,7 +14541,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
         <v>56</v>
       </c>
@@ -14550,7 +14561,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>56</v>
       </c>
@@ -14574,7 +14585,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>56</v>
       </c>
@@ -14594,7 +14605,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="446" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>56</v>
       </c>
@@ -14616,7 +14627,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>56</v>
       </c>
@@ -14638,7 +14649,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A448" s="7" t="s">
         <v>56</v>
       </c>
@@ -14658,7 +14669,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
         <v>56</v>
       </c>
@@ -14684,7 +14695,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>56</v>
       </c>
@@ -14706,7 +14717,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>56</v>
       </c>
@@ -14730,7 +14741,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A452" s="7" t="s">
         <v>56</v>
       </c>
@@ -14754,7 +14765,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
         <v>56</v>
       </c>
@@ -14780,7 +14791,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
         <v>56</v>
       </c>
@@ -14800,7 +14811,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>56</v>
       </c>
@@ -14820,7 +14831,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
         <v>56</v>
       </c>
@@ -14843,7 +14854,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>56</v>
       </c>
@@ -14865,7 +14876,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>56</v>
       </c>
@@ -14887,7 +14898,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>56</v>
       </c>
@@ -14910,7 +14921,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A460" s="7" t="s">
         <v>52</v>
       </c>
@@ -14930,7 +14941,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A461" s="7" t="s">
         <v>56</v>
       </c>
@@ -14947,7 +14958,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A462" s="7" t="s">
         <v>52</v>
       </c>
@@ -14964,7 +14975,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
         <v>56</v>
       </c>
@@ -14993,7 +15004,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>56</v>
       </c>
@@ -15015,7 +15026,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>56</v>
       </c>
@@ -15039,7 +15050,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>56</v>
       </c>
@@ -15065,7 +15076,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="7" t="s">
         <v>56</v>
       </c>
@@ -15085,7 +15096,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
         <v>52</v>
       </c>
@@ -15108,7 +15119,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
         <v>52</v>
       </c>
@@ -15128,7 +15139,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>56</v>
       </c>
@@ -15147,7 +15158,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>56</v>
       </c>
@@ -15169,7 +15180,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>56</v>
       </c>
@@ -15193,7 +15204,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="7" t="s">
         <v>52</v>
       </c>
@@ -15213,7 +15224,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
         <v>52</v>
       </c>
@@ -15233,7 +15244,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>56</v>
       </c>
@@ -15253,7 +15264,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="7" t="s">
         <v>52</v>
       </c>
@@ -15270,7 +15281,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
         <v>56</v>
       </c>
@@ -15292,7 +15303,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>56</v>
       </c>
@@ -15314,7 +15325,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>56</v>
       </c>
@@ -15338,7 +15349,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>56</v>
       </c>
@@ -15360,7 +15371,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="481" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>56</v>
       </c>
@@ -15386,7 +15397,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="482" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" s="7" t="s">
         <v>52</v>
       </c>
@@ -15406,7 +15417,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="483" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
         <v>52</v>
       </c>
@@ -15429,7 +15440,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="484" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>56</v>
       </c>
@@ -15451,7 +15462,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" s="7" t="s">
         <v>56</v>
       </c>
@@ -15468,7 +15479,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" s="7" t="s">
         <v>52</v>
       </c>
@@ -15491,7 +15502,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>56</v>
       </c>
@@ -15513,7 +15524,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="488" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>56</v>
       </c>
@@ -15535,7 +15546,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="489" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>56</v>
       </c>
@@ -15557,7 +15568,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>56</v>
       </c>
@@ -15581,7 +15592,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A491" s="7" t="s">
         <v>52</v>
       </c>
@@ -15606,7 +15617,7 @@
       <c r="L491" s="4"/>
       <c r="M491" s="4"/>
     </row>
-    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
         <v>44</v>
       </c>
@@ -15641,7 +15652,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>52</v>
       </c>
@@ -15658,7 +15669,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>56</v>
       </c>
@@ -15680,7 +15691,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495" s="7" t="s">
         <v>56</v>
       </c>
@@ -15697,7 +15708,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="496" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A496" s="7" t="s">
         <v>44</v>
       </c>
@@ -15729,7 +15740,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="497" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497" s="7" t="s">
         <v>44</v>
       </c>
@@ -15755,7 +15766,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498" s="7" t="s">
         <v>56</v>
       </c>
@@ -15781,7 +15792,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499" s="7" t="s">
         <v>44</v>
       </c>
@@ -15803,7 +15814,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>56</v>
       </c>
@@ -15822,7 +15833,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="501" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>56</v>
       </c>
@@ -15843,7 +15854,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="502" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502" s="7" t="s">
         <v>56</v>
       </c>
@@ -15865,7 +15876,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
         <v>56</v>
       </c>
@@ -15887,7 +15898,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504" s="7" t="s">
         <v>56</v>
       </c>
@@ -15909,7 +15920,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
         <v>56</v>
       </c>
@@ -15931,7 +15942,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506" s="7" t="s">
         <v>44</v>
       </c>
@@ -15954,7 +15965,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>56</v>
       </c>
@@ -15976,7 +15987,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="508" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>56</v>
       </c>
@@ -15997,7 +16008,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509" s="7" t="s">
         <v>56</v>
       </c>
@@ -16023,7 +16034,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="510" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A510" s="7" t="s">
         <v>56</v>
       </c>
@@ -16043,7 +16054,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="511" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>56</v>
       </c>
@@ -16064,7 +16075,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="512" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512" s="7" t="s">
         <v>52</v>
       </c>
@@ -16084,7 +16095,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" s="7" t="s">
         <v>56</v>
       </c>
@@ -16110,7 +16121,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" s="7" t="s">
         <v>56</v>
       </c>
@@ -16130,7 +16141,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="7" t="s">
         <v>52</v>
       </c>
@@ -16152,7 +16163,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>56</v>
       </c>
@@ -16176,7 +16187,7 @@
       <c r="L516" s="9"/>
       <c r="M516" s="9"/>
     </row>
-    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>225</v>
       </c>
@@ -16198,7 +16209,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>56</v>
       </c>
@@ -16215,7 +16226,7 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" s="7" t="s">
         <v>52</v>
       </c>
@@ -16264,7 +16275,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
         <v>369</v>
       </c>
@@ -16284,7 +16295,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
         <v>369</v>
       </c>
@@ -16362,7 +16373,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="525" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
         <v>369</v>
       </c>
@@ -16501,7 +16512,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
         <v>52</v>
       </c>
@@ -16521,7 +16532,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>369</v>
       </c>
@@ -16602,7 +16613,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A534" s="7" t="s">
         <v>369</v>
       </c>
@@ -16657,7 +16668,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="536" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A536" s="7" t="s">
         <v>52</v>
       </c>
@@ -16677,7 +16688,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
         <v>52</v>
       </c>
@@ -16697,7 +16708,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A538" s="7" t="s">
         <v>369</v>
       </c>
@@ -16837,7 +16848,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
         <v>369</v>
       </c>
@@ -16915,7 +16926,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="546" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A546" s="7" t="s">
         <v>369</v>
       </c>
@@ -16973,7 +16984,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A548" s="7" t="s">
         <v>369</v>
       </c>
@@ -17045,7 +17056,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
         <v>369</v>
       </c>
@@ -17100,7 +17111,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="553" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
         <v>369</v>
       </c>
@@ -17123,7 +17134,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="554" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A554" s="7" t="s">
         <v>369</v>
       </c>
@@ -17201,7 +17212,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A557" s="7" t="s">
         <v>369</v>
       </c>
@@ -17276,7 +17287,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="560" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A560" s="7" t="s">
         <v>369</v>
       </c>
@@ -17296,7 +17307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="561" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A561" s="7" t="s">
         <v>369</v>
       </c>
@@ -17316,7 +17327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A562" s="7" t="s">
         <v>369</v>
       </c>
@@ -17528,7 +17539,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="569" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A569" s="7" t="s">
         <v>369</v>
       </c>
@@ -17589,7 +17600,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="571" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A571" s="7" t="s">
         <v>369</v>
       </c>
@@ -17606,7 +17617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A572" s="7" t="s">
         <v>369</v>
       </c>
@@ -17632,7 +17643,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="573" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A573" s="7" t="s">
         <v>369</v>
       </c>
@@ -17675,7 +17686,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="575" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A575" s="7" t="s">
         <v>56</v>
       </c>
@@ -17695,7 +17706,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="576" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A576" s="7" t="s">
         <v>56</v>
       </c>
@@ -17712,7 +17723,7 @@
         <v>44637</v>
       </c>
     </row>
-    <row r="577" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A577" s="7" t="s">
         <v>369</v>
       </c>
@@ -17763,7 +17774,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="579" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A579" s="7" t="s">
         <v>56</v>
       </c>
@@ -17786,7 +17797,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="580" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A580" s="7" t="s">
         <v>56</v>
       </c>
@@ -17806,7 +17817,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="581" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A581" s="7" t="s">
         <v>369</v>
       </c>
@@ -17823,7 +17834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A582" s="7" t="s">
         <v>56</v>
       </c>
@@ -17866,7 +17877,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="584" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A584" s="7" t="s">
         <v>56</v>
       </c>
@@ -17967,7 +17978,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="588" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
         <v>56</v>
       </c>
@@ -17987,7 +17998,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="589" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
         <v>52</v>
       </c>
@@ -18065,7 +18076,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="592" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A592" s="7" t="s">
         <v>56</v>
       </c>
@@ -18082,7 +18093,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="593" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A593" s="7" t="s">
         <v>56</v>
       </c>
@@ -18099,7 +18110,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="594" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>56</v>
       </c>
@@ -18120,7 +18131,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="595" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>56</v>
       </c>
@@ -18141,7 +18152,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="596" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>56</v>
       </c>
@@ -18162,7 +18173,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="597" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>56</v>
       </c>
@@ -18183,7 +18194,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="598" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A598" s="7" t="s">
         <v>44</v>
       </c>
@@ -18209,7 +18220,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="599" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>56</v>
       </c>
@@ -18231,7 +18242,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="600" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>56</v>
       </c>
@@ -18253,7 +18264,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="601" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>56</v>
       </c>
@@ -18275,7 +18286,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="602" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>56</v>
       </c>
@@ -18299,7 +18310,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="603" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>56</v>
       </c>
@@ -18318,7 +18329,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="604" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A604" s="7" t="s">
         <v>56</v>
       </c>
@@ -18340,7 +18351,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="605" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
         <v>56</v>
       </c>
@@ -18357,7 +18368,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="606" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A606" s="7" t="s">
         <v>56</v>
       </c>
@@ -18377,7 +18388,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="607" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A607" s="7" t="s">
         <v>56</v>
       </c>
@@ -18400,7 +18411,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="608" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A608" s="7" t="s">
         <v>56</v>
       </c>
@@ -18423,7 +18434,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="609" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A609" s="7" t="s">
         <v>56</v>
       </c>
@@ -18442,7 +18453,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="610" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A610" s="7" t="s">
         <v>56</v>
       </c>
@@ -18459,7 +18470,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="611" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
         <v>56</v>
       </c>
@@ -18485,7 +18496,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="612" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A612" s="7" t="s">
         <v>56</v>
       </c>
@@ -18507,7 +18518,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="613" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A613" s="7" t="s">
         <v>56</v>
       </c>
@@ -18529,7 +18540,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="614" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A614" s="7" t="s">
         <v>56</v>
       </c>
@@ -18551,7 +18562,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="615" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A615" s="7" t="s">
         <v>56</v>
       </c>
@@ -18573,7 +18584,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="616" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A616" s="7" t="s">
         <v>44</v>
       </c>
@@ -18596,7 +18607,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="617" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A617" s="7" t="s">
         <v>56</v>
       </c>
@@ -18613,7 +18624,7 @@
         <v>44871</v>
       </c>
     </row>
-    <row r="618" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A618" s="7" t="s">
         <v>56</v>
       </c>
@@ -18636,7 +18647,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="619" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A619" s="7" t="s">
         <v>56</v>
       </c>
@@ -18657,7 +18668,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="620" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A620" s="7" t="s">
         <v>56</v>
       </c>
@@ -18681,7 +18692,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="621" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>56</v>
       </c>
@@ -18703,7 +18714,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="622" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>56</v>
       </c>
@@ -18724,7 +18735,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="623" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A623" s="7" t="s">
         <v>44</v>
       </c>
@@ -18744,7 +18755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A624" s="7" t="s">
         <v>44</v>
       </c>
@@ -18764,7 +18775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A625" s="7" t="s">
         <v>44</v>
       </c>
@@ -18781,7 +18792,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="626" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A626" s="7" t="s">
         <v>44</v>
       </c>
@@ -18798,7 +18809,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="627" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A627" s="7" t="s">
         <v>44</v>
       </c>
@@ -18818,7 +18829,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="628" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A628" s="7" t="s">
         <v>44</v>
       </c>
@@ -18835,7 +18846,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="629" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A629" s="7" t="s">
         <v>725</v>
       </c>
@@ -18852,7 +18863,7 @@
         <v>44912</v>
       </c>
     </row>
-    <row r="630" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A630" s="7" t="s">
         <v>44</v>
       </c>
@@ -18872,7 +18883,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="631" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A631" s="7" t="s">
         <v>44</v>
       </c>
@@ -18889,7 +18900,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="632" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A632" s="7" t="s">
         <v>44</v>
       </c>
@@ -18906,7 +18917,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="633" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A633" s="7" t="s">
         <v>44</v>
       </c>
@@ -18929,7 +18940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="634" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A634" s="7" t="s">
         <v>44</v>
       </c>
@@ -18949,7 +18960,7 @@
         <v>44920</v>
       </c>
     </row>
-    <row r="635" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A635" s="7" t="s">
         <v>44</v>
       </c>
@@ -18966,7 +18977,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="636" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A636" s="7" t="s">
         <v>44</v>
       </c>
@@ -18983,7 +18994,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="637" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A637" s="7" t="s">
         <v>44</v>
       </c>
@@ -19012,7 +19023,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="638" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A638" s="7" t="s">
         <v>52</v>
       </c>
@@ -19029,7 +19040,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="639" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A639" s="7" t="s">
         <v>44</v>
       </c>
@@ -19061,7 +19072,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="640" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A640" s="7" t="s">
         <v>52</v>
       </c>
@@ -19078,7 +19089,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="641" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A641" s="7" t="s">
         <v>44</v>
       </c>
@@ -19101,7 +19112,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="642" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A642" s="7" t="s">
         <v>44</v>
       </c>
@@ -19124,7 +19135,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="643" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A643" s="7" t="s">
         <v>44</v>
       </c>
@@ -19141,7 +19152,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="644" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A644" s="7" t="s">
         <v>44</v>
       </c>
@@ -19158,7 +19169,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="645" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A645" s="7" t="s">
         <v>44</v>
       </c>
@@ -19175,7 +19186,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="646" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A646" s="7" t="s">
         <v>44</v>
       </c>
@@ -19195,7 +19206,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="647" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A647" s="7" t="s">
         <v>44</v>
       </c>
@@ -19212,7 +19223,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="648" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A648" s="7" t="s">
         <v>44</v>
       </c>
@@ -19229,7 +19240,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="649" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A649" s="7" t="s">
         <v>44</v>
       </c>
@@ -19252,7 +19263,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="650" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A650" s="7" t="s">
         <v>44</v>
       </c>
@@ -19275,7 +19286,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="651" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A651" s="7" t="s">
         <v>44</v>
       </c>
@@ -19292,7 +19303,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="652" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A652" s="7" t="s">
         <v>44</v>
       </c>
@@ -19318,7 +19329,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="653" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A653" s="7" t="s">
         <v>44</v>
       </c>
@@ -19341,7 +19352,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="654" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A654" s="7" t="s">
         <v>44</v>
       </c>
@@ -19364,7 +19375,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="655" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A655" s="7" t="s">
         <v>44</v>
       </c>
@@ -19384,7 +19395,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="656" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A656" s="7" t="s">
         <v>44</v>
       </c>
@@ -19404,7 +19415,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="657" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A657" s="7" t="s">
         <v>44</v>
       </c>
@@ -19424,7 +19435,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="658" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A658" s="7" t="s">
         <v>44</v>
       </c>
@@ -19444,7 +19455,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="659" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A659" s="7" t="s">
         <v>56</v>
       </c>
@@ -19464,7 +19475,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="660" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A660" s="7" t="s">
         <v>56</v>
       </c>
@@ -19484,7 +19495,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="661" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A661" s="7" t="s">
         <v>56</v>
       </c>
@@ -19501,7 +19512,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="662" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>56</v>
       </c>
@@ -19522,7 +19533,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="663" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A663" s="7" t="s">
         <v>44</v>
       </c>
@@ -19539,7 +19550,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="664" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A664" s="7" t="s">
         <v>44</v>
       </c>
@@ -19556,7 +19567,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="665" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A665" s="7" t="s">
         <v>44</v>
       </c>
@@ -19573,7 +19584,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="666" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A666" s="7" t="s">
         <v>44</v>
       </c>
@@ -19590,7 +19601,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="667" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A667" s="7" t="s">
         <v>44</v>
       </c>
@@ -19607,7 +19618,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="668" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A668" s="7" t="s">
         <v>44</v>
       </c>
@@ -19624,7 +19635,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="669" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A669" s="7" t="s">
         <v>56</v>
       </c>
@@ -19644,7 +19655,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="670" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A670" s="7" t="s">
         <v>56</v>
       </c>
@@ -19661,7 +19672,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="671" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A671" s="7" t="s">
         <v>44</v>
       </c>
@@ -19678,7 +19689,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="672" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A672" s="7" t="s">
         <v>56</v>
       </c>
@@ -19698,7 +19709,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="7" t="s">
         <v>56</v>
       </c>
@@ -19721,7 +19732,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="7" t="s">
         <v>52</v>
       </c>
@@ -19738,7 +19749,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="7" t="s">
         <v>52</v>
       </c>
@@ -19758,7 +19769,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" s="7" t="s">
         <v>44</v>
       </c>
@@ -19775,7 +19786,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" s="7" t="s">
         <v>56</v>
       </c>
@@ -19792,7 +19803,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" s="7" t="s">
         <v>44</v>
       </c>
@@ -19809,7 +19820,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" s="7" t="s">
         <v>56</v>
       </c>
@@ -19829,7 +19840,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" s="7" t="s">
         <v>56</v>
       </c>
@@ -19852,7 +19863,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" s="7" t="s">
         <v>52</v>
       </c>
@@ -19869,7 +19880,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="7" t="s">
         <v>52</v>
       </c>
@@ -19886,7 +19897,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" s="7" t="s">
         <v>52</v>
       </c>
@@ -19903,7 +19914,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="7" t="s">
         <v>56</v>
       </c>
@@ -19920,7 +19931,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="7" t="s">
         <v>56</v>
       </c>
@@ -19940,7 +19951,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" s="7" t="s">
         <v>56</v>
       </c>
@@ -19960,7 +19971,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" s="7" t="s">
         <v>52</v>
       </c>
@@ -19980,7 +19991,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" s="7" t="s">
         <v>56</v>
       </c>
@@ -20026,7 +20037,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="690" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A690" s="7" t="s">
         <v>52</v>
       </c>
@@ -20046,7 +20057,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="691" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A691" s="7" t="s">
         <v>52</v>
       </c>
@@ -20066,7 +20077,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="692" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A692" s="7" t="s">
         <v>52</v>
       </c>
@@ -20083,7 +20094,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="693" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A693" s="7" t="s">
         <v>52</v>
       </c>
@@ -20100,7 +20111,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="694" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A694" s="7" t="s">
         <v>56</v>
       </c>
@@ -20117,7 +20128,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="695" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A695" s="7" t="s">
         <v>56</v>
       </c>
@@ -20137,7 +20148,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="696" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A696" s="7" t="s">
         <v>56</v>
       </c>
@@ -20157,7 +20168,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="697" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A697" s="7" t="s">
         <v>56</v>
       </c>
@@ -20174,7 +20185,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="698" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A698" s="7" t="s">
         <v>768</v>
       </c>
@@ -20191,7 +20202,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="699" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A699" s="7" t="s">
         <v>56</v>
       </c>
@@ -20211,7 +20222,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="700" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A700" s="7" t="s">
         <v>56</v>
       </c>
@@ -20234,7 +20245,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="701" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A701" s="7" t="s">
         <v>56</v>
       </c>
@@ -20254,7 +20265,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="702" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A702" s="7" t="s">
         <v>56</v>
       </c>
@@ -20274,7 +20285,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="703" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A703" s="7" t="s">
         <v>56</v>
       </c>
@@ -20294,7 +20305,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="704" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A704" s="7" t="s">
         <v>56</v>
       </c>
@@ -20317,7 +20328,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="705" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A705" s="7" t="s">
         <v>56</v>
       </c>
@@ -20337,7 +20348,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="706" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A706" s="7" t="s">
         <v>52</v>
       </c>
@@ -20357,7 +20368,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="707" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A707" s="7" t="s">
         <v>56</v>
       </c>
@@ -20377,7 +20388,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="708" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
         <v>225</v>
       </c>
@@ -20399,7 +20410,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="709" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A709" s="7" t="s">
         <v>56</v>
       </c>
@@ -20419,7 +20430,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="710" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A710" s="7" t="s">
         <v>56</v>
       </c>
@@ -20439,7 +20450,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="711" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A711" s="7" t="s">
         <v>768</v>
       </c>
@@ -20462,7 +20473,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="712" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A712" s="7" t="s">
         <v>768</v>
       </c>
@@ -20485,7 +20496,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="713" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
         <v>56</v>
       </c>
@@ -20504,7 +20515,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="714" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A714" s="7" t="s">
         <v>56</v>
       </c>
@@ -20524,7 +20535,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="715" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A715" s="7" t="s">
         <v>56</v>
       </c>
@@ -20547,7 +20558,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="716" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A716" s="7" t="s">
         <v>52</v>
       </c>
@@ -20567,7 +20578,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="717" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A717" s="7" t="s">
         <v>44</v>
       </c>
@@ -20587,7 +20598,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="718" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A718" s="7" t="s">
         <v>768</v>
       </c>
@@ -20604,7 +20615,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="719" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A719" s="7" t="s">
         <v>56</v>
       </c>
@@ -20621,7 +20632,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="720" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A720" s="7" t="s">
         <v>56</v>
       </c>
@@ -20638,7 +20649,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="721" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A721" s="7" t="s">
         <v>56</v>
       </c>
@@ -20655,7 +20666,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="722" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A722" s="7" t="s">
         <v>56</v>
       </c>
@@ -20678,7 +20689,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="723" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A723" s="7" t="s">
         <v>44</v>
       </c>
@@ -20704,7 +20715,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="724" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A724" s="7" t="s">
         <v>52</v>
       </c>
@@ -20724,7 +20735,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="725" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A725" s="7" t="s">
         <v>56</v>
       </c>
@@ -20744,7 +20755,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="726" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A726" s="7" t="s">
         <v>768</v>
       </c>
@@ -20761,7 +20772,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="727" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A727" s="7" t="s">
         <v>56</v>
       </c>
@@ -20778,7 +20789,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="728" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A728" s="7" t="s">
         <v>52</v>
       </c>
@@ -20798,7 +20809,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="729" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A729" s="7" t="s">
         <v>44</v>
       </c>
@@ -20827,7 +20838,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="730" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A730" s="7" t="s">
         <v>44</v>
       </c>
@@ -20856,7 +20867,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="731" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A731" s="7" t="s">
         <v>52</v>
       </c>
@@ -20876,7 +20887,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="732" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A732" s="7" t="s">
         <v>52</v>
       </c>
@@ -20896,7 +20907,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="733" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A733" s="7" t="s">
         <v>56</v>
       </c>
@@ -20916,7 +20927,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="734" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A734" s="7" t="s">
         <v>56</v>
       </c>
@@ -20936,7 +20947,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="735" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A735" s="7" t="s">
         <v>56</v>
       </c>
@@ -20956,7 +20967,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="736" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A736" s="7" t="s">
         <v>56</v>
       </c>
@@ -20973,7 +20984,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" s="7" t="s">
         <v>56</v>
       </c>
@@ -20990,7 +21001,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" s="7" t="s">
         <v>56</v>
       </c>
@@ -21010,7 +21021,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" s="7" t="s">
         <v>52</v>
       </c>
@@ -21030,7 +21041,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" s="7" t="s">
         <v>52</v>
       </c>
@@ -21050,7 +21061,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" s="7" t="s">
         <v>52</v>
       </c>
@@ -21073,7 +21084,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" s="7" t="s">
         <v>56</v>
       </c>
@@ -21093,7 +21104,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" s="7" t="s">
         <v>56</v>
       </c>
@@ -21110,7 +21121,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" s="7" t="s">
         <v>52</v>
       </c>
@@ -21130,7 +21141,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" s="7" t="s">
         <v>52</v>
       </c>
@@ -21150,7 +21161,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" s="7" t="s">
         <v>56</v>
       </c>
@@ -21170,7 +21181,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" s="7" t="s">
         <v>56</v>
       </c>
@@ -21187,7 +21198,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A748" s="7" t="s">
         <v>56</v>
       </c>
@@ -21207,7 +21218,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" s="7" t="s">
         <v>44</v>
       </c>
@@ -21224,7 +21235,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A750" s="7" t="s">
         <v>56</v>
       </c>
@@ -21244,7 +21255,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A751" s="7" t="s">
         <v>56</v>
       </c>
@@ -21264,7 +21275,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A752" s="7" t="s">
         <v>56</v>
       </c>
@@ -21284,7 +21295,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="753" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A753" s="7" t="s">
         <v>56</v>
       </c>
@@ -21304,7 +21315,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="754" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A754" s="7" t="s">
         <v>56</v>
       </c>
@@ -21324,7 +21335,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="755" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A755" s="7" t="s">
         <v>56</v>
       </c>
@@ -21344,7 +21355,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="756" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A756" s="7" t="s">
         <v>56</v>
       </c>
@@ -21364,7 +21375,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="757" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A757" s="7" t="s">
         <v>56</v>
       </c>
@@ -21387,7 +21398,7 @@
       <c r="J757" s="4"/>
       <c r="K757" s="4"/>
     </row>
-    <row r="758" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A758" s="7" t="s">
         <v>56</v>
       </c>
@@ -21404,7 +21415,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="759" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A759" s="7" t="s">
         <v>52</v>
       </c>
@@ -21424,7 +21435,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="760" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A760" s="7" t="s">
         <v>768</v>
       </c>
@@ -21441,7 +21452,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="761" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A761" s="7" t="s">
         <v>52</v>
       </c>
@@ -21461,7 +21472,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="762" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A762" s="7" t="s">
         <v>52</v>
       </c>
@@ -21478,7 +21489,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="763" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A763" s="7" t="s">
         <v>52</v>
       </c>
@@ -21611,7 +21622,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="768" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A768" s="7" t="s">
         <v>369</v>
       </c>
@@ -21637,7 +21648,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="769" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A769" s="7" t="s">
         <v>52</v>
       </c>
@@ -21686,7 +21697,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="771" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A771" s="7" t="s">
         <v>369</v>
       </c>
@@ -21709,7 +21720,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="772" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A772" s="7" t="s">
         <v>52</v>
       </c>
@@ -21729,7 +21740,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="773" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A773" s="7" t="s">
         <v>369</v>
       </c>
@@ -21758,7 +21769,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="774" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A774" s="7" t="s">
         <v>369</v>
       </c>
@@ -21810,7 +21821,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="776" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A776" s="7" t="s">
         <v>369</v>
       </c>
@@ -21879,7 +21890,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="779" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A779" s="7" t="s">
         <v>44</v>
       </c>
@@ -21934,7 +21945,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="781" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A781" s="7" t="s">
         <v>369</v>
       </c>
@@ -21963,7 +21974,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="782" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A782" s="7" t="s">
         <v>369</v>
       </c>
@@ -21986,7 +21997,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="783" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A783" s="7" t="s">
         <v>52</v>
       </c>
@@ -22006,7 +22017,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="784" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A784" s="7" t="s">
         <v>52</v>
       </c>
@@ -22055,7 +22066,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="786" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A786" s="7" t="s">
         <v>369</v>
       </c>
@@ -22107,7 +22118,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="788" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A788" s="7" t="s">
         <v>52</v>
       </c>
@@ -22127,7 +22138,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="789" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A789" s="7" t="s">
         <v>52</v>
       </c>
@@ -22237,7 +22248,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="793" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A793" s="7" t="s">
         <v>52</v>
       </c>
@@ -22257,7 +22268,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="794" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A794" s="7" t="s">
         <v>369</v>
       </c>
@@ -22277,7 +22288,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="795" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A795" s="7" t="s">
         <v>52</v>
       </c>
@@ -22297,7 +22308,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="796" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A796" s="7" t="s">
         <v>369</v>
       </c>
@@ -22430,7 +22441,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="801" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A801" s="7" t="s">
         <v>44</v>
       </c>
@@ -22514,7 +22525,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="804" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A804" s="7" t="s">
         <v>56</v>
       </c>
@@ -22534,7 +22545,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="805" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A805" s="7" t="s">
         <v>56</v>
       </c>
@@ -22551,7 +22562,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="806" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A806" s="7" t="s">
         <v>369</v>
       </c>
@@ -22565,7 +22576,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="807" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A807" s="7" t="s">
         <v>369</v>
       </c>
@@ -22576,7 +22587,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="808" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A808" s="7" t="s">
         <v>52</v>
       </c>
@@ -22596,7 +22607,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="809" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A809" s="7" t="s">
         <v>56</v>
       </c>
@@ -22645,7 +22656,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="811" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A811" s="7" t="s">
         <v>369</v>
       </c>
@@ -22665,7 +22676,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="812" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A812" s="7" t="s">
         <v>369</v>
       </c>
@@ -22731,7 +22742,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="815" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A815" s="7" t="s">
         <v>369</v>
       </c>
@@ -22751,7 +22762,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="816" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A816" s="7" t="s">
         <v>44</v>
       </c>
@@ -22771,7 +22782,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="817" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A817" s="7" t="s">
         <v>52</v>
       </c>
@@ -22820,7 +22831,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="819" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A819" s="7" t="s">
         <v>369</v>
       </c>
@@ -22872,7 +22883,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="821" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A821" s="7" t="s">
         <v>52</v>
       </c>
@@ -22892,7 +22903,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="822" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A822" s="7" t="s">
         <v>56</v>
       </c>
@@ -22912,7 +22923,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="823" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A823" s="7" t="s">
         <v>56</v>
       </c>
@@ -22929,7 +22940,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="824" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A824" s="7" t="s">
         <v>56</v>
       </c>
@@ -22949,7 +22960,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="825" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A825" s="7" t="s">
         <v>52</v>
       </c>
@@ -22972,7 +22983,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="826" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
         <v>56</v>
       </c>
@@ -22994,7 +23005,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="827" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>56</v>
       </c>
@@ -23018,7 +23029,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="828" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A828" s="7" t="s">
         <v>52</v>
       </c>
@@ -23038,7 +23049,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="829" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
         <v>56</v>
       </c>
@@ -23060,7 +23071,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="830" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>56</v>
       </c>
@@ -23084,7 +23095,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="831" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A831" s="7" t="s">
         <v>883</v>
       </c>
@@ -23101,7 +23112,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="832" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A832" s="7" t="s">
         <v>44</v>
       </c>
@@ -23118,7 +23129,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="833" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A833" s="7" t="s">
         <v>52</v>
       </c>
@@ -23141,7 +23152,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row r="834" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A834" s="7" t="s">
         <v>56</v>
       </c>
@@ -23161,7 +23172,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="835" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A835" s="7" t="s">
         <v>56</v>
       </c>
@@ -23178,7 +23189,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="836" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A836" s="7" t="s">
         <v>56</v>
       </c>
@@ -23198,7 +23209,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="837" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A837" s="7" t="s">
         <v>56</v>
       </c>
@@ -23215,7 +23226,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="838" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A838" s="7" t="s">
         <v>56</v>
       </c>
@@ -23237,7 +23248,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="839" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A839" s="7" t="s">
         <v>56</v>
       </c>
@@ -23261,7 +23272,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="840" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A840" s="7" t="s">
         <v>56</v>
       </c>
@@ -23281,7 +23292,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="841" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A841" s="7" t="s">
         <v>56</v>
       </c>
@@ -23298,7 +23309,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="842" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A842" s="7" t="s">
         <v>56</v>
       </c>
@@ -23315,7 +23326,7 @@
         <v>45409</v>
       </c>
     </row>
-    <row r="843" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A843" s="7" t="s">
         <v>56</v>
       </c>
@@ -23335,7 +23346,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="844" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A844" s="7" t="s">
         <v>56</v>
       </c>
@@ -23355,7 +23366,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="845" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A845" s="1" t="s">
         <v>56</v>
       </c>
@@ -23377,7 +23388,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="846" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
         <v>56</v>
       </c>
@@ -23520,7 +23531,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="851" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A851" s="7" t="s">
         <v>56</v>
       </c>
@@ -23540,7 +23551,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="852" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A852" s="7" t="s">
         <v>52</v>
       </c>
@@ -23560,7 +23571,7 @@
         <v>45428</v>
       </c>
     </row>
-    <row r="853" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A853" s="7" t="s">
         <v>56</v>
       </c>
@@ -23577,7 +23588,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="854" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A854" s="7" t="s">
         <v>56</v>
       </c>
@@ -23600,7 +23611,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="855" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A855" s="7" t="s">
         <v>56</v>
       </c>
@@ -23620,7 +23631,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="856" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A856" s="7" t="s">
         <v>56</v>
       </c>
@@ -23640,7 +23651,7 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="857" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A857" s="7" t="s">
         <v>56</v>
       </c>
@@ -23663,7 +23674,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="858" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A858" s="7" t="s">
         <v>52</v>
       </c>
@@ -23683,7 +23694,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="859" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A859" s="7" t="s">
         <v>56</v>
       </c>
@@ -23703,7 +23714,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="860" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A860" s="7" t="s">
         <v>52</v>
       </c>
@@ -23723,7 +23734,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="861" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A861" s="7" t="s">
         <v>56</v>
       </c>
@@ -23743,7 +23754,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="862" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A862" s="7" t="s">
         <v>56</v>
       </c>
@@ -23763,7 +23774,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="863" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A863" s="7" t="s">
         <v>56</v>
       </c>
@@ -23783,7 +23794,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="864" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A864" s="7" t="s">
         <v>56</v>
       </c>
@@ -23803,7 +23814,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="865" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A865" s="7" t="s">
         <v>44</v>
       </c>
@@ -23829,7 +23840,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="866" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A866" s="7" t="s">
         <v>52</v>
       </c>
@@ -23855,7 +23866,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="867" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A867" s="7" t="s">
         <v>56</v>
       </c>
@@ -23872,7 +23883,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="868" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A868" s="7" t="s">
         <v>56</v>
       </c>
@@ -23894,7 +23905,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="869" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A869" s="7" t="s">
         <v>56</v>
       </c>
@@ -23917,7 +23928,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="870" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A870" s="7" t="s">
         <v>56</v>
       </c>
@@ -23934,7 +23945,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="871" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A871" s="7" t="s">
         <v>52</v>
       </c>
@@ -23960,7 +23971,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="872" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A872" s="7" t="s">
         <v>56</v>
       </c>
@@ -23977,7 +23988,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="873" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A873" s="7" t="s">
         <v>56</v>
       </c>
@@ -23997,7 +24008,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="874" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A874" s="7" t="s">
         <v>56</v>
       </c>
@@ -24017,7 +24028,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="875" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A875" s="7" t="s">
         <v>56</v>
       </c>
@@ -24034,7 +24045,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="876" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A876" s="7" t="s">
         <v>52</v>
       </c>
@@ -24051,7 +24062,7 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="877" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A877" s="7" t="s">
         <v>52</v>
       </c>
@@ -24074,7 +24085,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="878" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A878" s="7" t="s">
         <v>52</v>
       </c>
@@ -24094,7 +24105,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="879" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A879" s="7" t="s">
         <v>56</v>
       </c>
@@ -24137,7 +24148,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="881" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A881" s="7" t="s">
         <v>44</v>
       </c>
@@ -24157,7 +24168,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="882" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A882" s="7" t="s">
         <v>768</v>
       </c>
@@ -24177,7 +24188,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="883" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A883" s="7" t="s">
         <v>44</v>
       </c>
@@ -24194,7 +24205,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="884" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A884" s="7" t="s">
         <v>44</v>
       </c>
@@ -24211,7 +24222,7 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="885" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A885" s="7" t="s">
         <v>943</v>
       </c>
@@ -24228,7 +24239,7 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="886" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A886" s="7" t="s">
         <v>44</v>
       </c>
@@ -24251,7 +24262,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="887" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A887" s="7" t="s">
         <v>52</v>
       </c>
@@ -24268,7 +24279,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="888" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A888" s="7" t="s">
         <v>44</v>
       </c>
@@ -24291,7 +24302,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="889" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A889" s="7" t="s">
         <v>52</v>
       </c>
@@ -24326,7 +24337,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="890" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A890" s="7" t="s">
         <v>52</v>
       </c>
@@ -24358,7 +24369,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="891" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A891" s="7" t="s">
         <v>44</v>
       </c>
@@ -24387,7 +24398,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="892" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A892" s="7" t="s">
         <v>56</v>
       </c>
@@ -24404,7 +24415,7 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="893" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A893" s="7" t="s">
         <v>56</v>
       </c>
@@ -24424,7 +24435,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="894" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A894" s="7" t="s">
         <v>44</v>
       </c>
@@ -24444,7 +24455,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="895" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A895" s="7" t="s">
         <v>943</v>
       </c>
@@ -24473,7 +24484,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="896" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A896" s="7" t="s">
         <v>56</v>
       </c>
@@ -24493,7 +24504,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="897" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A897" s="7" t="s">
         <v>52</v>
       </c>
@@ -24525,7 +24536,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="898" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A898" s="7" t="s">
         <v>44</v>
       </c>
@@ -24548,7 +24559,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="899" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A899" s="7" t="s">
         <v>56</v>
       </c>
@@ -24571,7 +24582,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="900" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A900" s="7" t="s">
         <v>56</v>
       </c>
@@ -24591,7 +24602,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="901" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A901" s="7" t="s">
         <v>56</v>
       </c>
@@ -24608,7 +24619,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="902" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A902" s="7" t="s">
         <v>44</v>
       </c>
@@ -24631,7 +24642,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="903" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A903" s="7" t="s">
         <v>44</v>
       </c>
@@ -24654,7 +24665,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="904" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A904" s="7" t="s">
         <v>44</v>
       </c>
@@ -24680,7 +24691,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="905" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A905" s="7" t="s">
         <v>56</v>
       </c>
@@ -24700,7 +24711,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="906" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A906" s="7" t="s">
         <v>44</v>
       </c>
@@ -24720,7 +24731,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="907" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A907" s="7" t="s">
         <v>52</v>
       </c>
@@ -24755,7 +24766,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="908" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A908" s="7" t="s">
         <v>52</v>
       </c>
@@ -24784,7 +24795,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="909" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A909" s="7" t="s">
         <v>52</v>
       </c>
@@ -24813,7 +24824,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="910" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A910" s="7" t="s">
         <v>225</v>
       </c>
@@ -24833,7 +24844,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="911" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A911" s="7" t="s">
         <v>44</v>
       </c>
@@ -24853,7 +24864,7 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="912" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A912" s="7" t="s">
         <v>52</v>
       </c>
@@ -24873,7 +24884,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="913" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A913" s="7" t="s">
         <v>52</v>
       </c>
@@ -24899,7 +24910,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="914" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A914" s="7" t="s">
         <v>56</v>
       </c>
@@ -24919,7 +24930,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="915" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A915" s="7" t="s">
         <v>52</v>
       </c>
@@ -24939,7 +24950,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="916" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A916" s="7" t="s">
         <v>52</v>
       </c>
@@ -24965,7 +24976,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="917" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A917" s="7" t="s">
         <v>44</v>
       </c>
@@ -24994,7 +25005,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="918" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A918" s="7" t="s">
         <v>56</v>
       </c>
@@ -25014,7 +25025,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="919" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A919" s="7" t="s">
         <v>56</v>
       </c>
@@ -25034,7 +25045,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="920" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A920" s="7" t="s">
         <v>56</v>
       </c>
@@ -25054,7 +25065,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="921" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A921" s="7" t="s">
         <v>56</v>
       </c>
@@ -25074,7 +25085,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="922" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A922" s="7" t="s">
         <v>52</v>
       </c>
@@ -25106,7 +25117,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="923" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A923" s="7" t="s">
         <v>56</v>
       </c>
@@ -25123,7 +25134,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="924" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A924" s="7" t="s">
         <v>56</v>
       </c>
@@ -25145,7 +25156,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="925" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A925" s="7" t="s">
         <v>56</v>
       </c>
@@ -25167,7 +25178,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="926" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A926" s="7" t="s">
         <v>56</v>
       </c>
@@ -25189,7 +25200,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="927" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A927" s="7" t="s">
         <v>56</v>
       </c>
@@ -25211,7 +25222,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="928" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A928" s="7" t="s">
         <v>52</v>
       </c>
@@ -25243,7 +25254,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="929" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A929" s="7" t="s">
         <v>52</v>
       </c>
@@ -25275,7 +25286,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="930" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A930" s="7" t="s">
         <v>52</v>
       </c>
@@ -25295,7 +25306,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="931" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A931" s="7" t="s">
         <v>52</v>
       </c>
@@ -25315,7 +25326,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="932" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A932" s="7" t="s">
         <v>52</v>
       </c>
@@ -25347,7 +25358,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="933" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A933" s="7" t="s">
         <v>56</v>
       </c>
@@ -25367,7 +25378,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="934" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A934" s="7" t="s">
         <v>56</v>
       </c>
@@ -25384,7 +25395,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="935" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A935" s="7" t="s">
         <v>52</v>
       </c>
@@ -25419,7 +25430,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="936" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A936" s="7" t="s">
         <v>52</v>
       </c>
@@ -25445,7 +25456,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="937" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A937" s="7" t="s">
         <v>52</v>
       </c>
@@ -25483,7 +25494,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="938" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A938" s="7" t="s">
         <v>56</v>
       </c>
@@ -25506,7 +25517,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="939" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A939" s="7" t="s">
         <v>52</v>
       </c>
@@ -25526,7 +25537,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="940" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A940" s="7" t="s">
         <v>52</v>
       </c>
@@ -25558,7 +25569,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="941" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A941" s="7" t="s">
         <v>52</v>
       </c>
@@ -25593,7 +25604,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="942" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A942" s="7" t="s">
         <v>52</v>
       </c>
@@ -25616,7 +25627,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="943" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A943" s="7" t="s">
         <v>52</v>
       </c>
@@ -25651,7 +25662,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="944" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A944" s="7" t="s">
         <v>52</v>
       </c>
@@ -25680,7 +25691,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="945" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A945" s="7" t="s">
         <v>44</v>
       </c>
@@ -25700,7 +25711,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="946" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A946" s="7" t="s">
         <v>56</v>
       </c>
@@ -25717,7 +25728,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="947" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A947" s="7" t="s">
         <v>56</v>
       </c>
@@ -25737,7 +25748,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="948" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A948" s="7" t="s">
         <v>56</v>
       </c>
@@ -25757,7 +25768,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="949" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A949" s="7" t="s">
         <v>52</v>
       </c>
@@ -25789,7 +25800,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="950" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A950" s="7" t="s">
         <v>52</v>
       </c>
@@ -25821,7 +25832,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="951" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A951" s="7" t="s">
         <v>56</v>
       </c>
@@ -25841,7 +25852,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="952" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A952" s="7" t="s">
         <v>56</v>
       </c>
@@ -25861,7 +25872,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="953" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A953" s="7" t="s">
         <v>52</v>
       </c>
@@ -25893,7 +25904,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="954" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A954" s="7" t="s">
         <v>56</v>
       </c>
@@ -25913,7 +25924,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="955" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A955" s="7" t="s">
         <v>56</v>
       </c>
@@ -25936,7 +25947,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="956" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A956" s="7" t="s">
         <v>56</v>
       </c>
@@ -25956,7 +25967,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="957" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A957" s="7" t="s">
         <v>56</v>
       </c>
@@ -25976,7 +25987,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="958" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A958" s="7" t="s">
         <v>52</v>
       </c>
@@ -26002,7 +26013,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="959" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A959" s="7" t="s">
         <v>52</v>
       </c>
@@ -26037,7 +26048,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="960" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A960" s="7" t="s">
         <v>52</v>
       </c>
@@ -26066,7 +26077,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="961" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A961" s="7" t="s">
         <v>52</v>
       </c>
@@ -26101,7 +26112,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="962" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A962" s="7" t="s">
         <v>56</v>
       </c>
@@ -26121,7 +26132,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="963" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A963" s="7" t="s">
         <v>56</v>
       </c>
@@ -26144,7 +26155,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="964" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A964" s="7" t="s">
         <v>56</v>
       </c>
@@ -26170,7 +26181,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="965" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A965" s="7" t="s">
         <v>52</v>
       </c>
@@ -26202,7 +26213,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="966" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A966" s="7" t="s">
         <v>44</v>
       </c>
@@ -26222,7 +26233,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="967" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A967" s="7" t="s">
         <v>52</v>
       </c>
@@ -26257,7 +26268,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="968" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A968" s="7" t="s">
         <v>52</v>
       </c>
@@ -26289,7 +26300,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="969" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A969" s="7" t="s">
         <v>52</v>
       </c>
@@ -26350,7 +26361,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="971" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A971" s="7" t="s">
         <v>52</v>
       </c>
@@ -26379,7 +26390,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="972" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A972" s="7" t="s">
         <v>52</v>
       </c>
@@ -26411,7 +26422,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="973" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A973" s="7" t="s">
         <v>52</v>
       </c>
@@ -26446,7 +26457,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="974" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A974" s="7" t="s">
         <v>52</v>
       </c>
@@ -26475,14 +26486,131 @@
         <v>960</v>
       </c>
     </row>
+    <row r="975" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A975" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B975" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C975" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G975" s="1">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="976" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A976" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B976" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C976" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G976" s="1">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="977" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A977" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B977" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C977" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D977" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E977" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="F977" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="G977" s="1">
+        <v>45632</v>
+      </c>
+      <c r="I977" s="7">
+        <v>243</v>
+      </c>
+      <c r="J977" s="7">
+        <v>248</v>
+      </c>
+      <c r="K977" s="7">
+        <v>4.09</v>
+      </c>
+      <c r="M977" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="978" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A978" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B978" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C978" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D978" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F978" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="G978" s="1">
+        <v>45635</v>
+      </c>
+      <c r="I978" s="7">
+        <v>57</v>
+      </c>
+      <c r="J978" s="7">
+        <v>58</v>
+      </c>
+      <c r="K978" s="7">
+        <v>6.51</v>
+      </c>
+      <c r="M978" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="979" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A979" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B979" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C979" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F979" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G979" s="1">
+        <v>45639</v>
+      </c>
+      <c r="H979" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L979" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="M979" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q979" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U974" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Skitour"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U937">
     <sortCondition ref="G2:G937"/>
   </sortState>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4A05D4-DA69-4D33-B809-F961EAD132C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46047792-CC1E-4736-9531-ADDE9402C317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5491" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5498" uniqueCount="1061">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3203,6 +3203,9 @@
   </si>
   <si>
     <t>01:57:30.0</t>
+  </si>
+  <si>
+    <t>01:14:53.0</t>
   </si>
 </sst>
 </file>
@@ -3730,11 +3733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U979"/>
+  <dimension ref="A1:U980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A948" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L979" sqref="L979"/>
+      <selection pane="bottomLeft" activeCell="L980" sqref="L980:M980"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26610,6 +26613,32 @@
         <v>386</v>
       </c>
     </row>
+    <row r="980" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A980" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B980" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C980" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F980" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G980" s="1">
+        <v>45642</v>
+      </c>
+      <c r="H980" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L980" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="M980" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U937">
     <sortCondition ref="G2:G937"/>
